--- a/excels/excel-100_typeStatisticsByPercentageSummarized.xlsx
+++ b/excels/excel-100_typeStatisticsByPercentageSummarized.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE47B4C2-8D6C-4940-AD1A-1BA0620009C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{677FCD6A-3452-4AD3-873D-783CE2ACF137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="typeStatisticsByPercentageSumma" sheetId="1" r:id="rId2"/>
+    <sheet name="100_typeStatisticsByPercentageS" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,31 +645,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>100 TYPE </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -710,14 +685,13 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$B$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>low-Choice</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -746,7 +720,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1054,12 +1028,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$B$2:$B$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$B$2:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1109,7 +1082,7 @@
                   <c:v>0.12121212121212099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.121495327102803</c:v>
+                  <c:v>0.122222222222222</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.122448979591836</c:v>
@@ -1139,7 +1112,7 @@
                   <c:v>0.12765957446808501</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.12871287128712799</c:v>
+                  <c:v>0.12903225806451599</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.129411764705882</c:v>
@@ -1148,7 +1121,7 @@
                   <c:v>0.13043478260869501</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.13131313131313099</c:v>
+                  <c:v>0.13186813186813101</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.132530120481927</c:v>
@@ -1160,7 +1133,7 @@
                   <c:v>0.134146341463414</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.135135135135135</c:v>
+                  <c:v>0.13541666666666599</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.13636363636363599</c:v>
@@ -1169,7 +1142,7 @@
                   <c:v>0.13750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.13793103448275801</c:v>
+                  <c:v>0.139240506329113</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.13953488372093001</c:v>
@@ -1178,7 +1151,7 @@
                   <c:v>0.141025641025641</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.14117647058823499</c:v>
+                  <c:v>0.14285714285714199</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.14285714285714199</c:v>
@@ -1187,16 +1160,16 @@
                   <c:v>0.14457831325301199</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.14492753623188401</c:v>
+                  <c:v>0.146341463414634</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.146666666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.148148148148148</c:v>
+                  <c:v>0.14864864864864799</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.14925373134328301</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.150684931506849</c:v>
@@ -1205,22 +1178,22 @@
                   <c:v>0.151898734177215</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.15277777777777701</c:v>
+                  <c:v>0.15384615384615299</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.154929577464788</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.15584415584415501</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.157142857142857</c:v>
+                  <c:v>0.157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.158730158730158</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.15942028985507201</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0.16129032258064499</c:v>
@@ -1250,13 +1223,13 @@
                   <c:v>0.169811320754716</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.169811320754716</c:v>
+                  <c:v>0.17241379310344801</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.17241379310344801</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.17241379310344801</c:v>
+                  <c:v>0.17307692307692299</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.17307692307692299</c:v>
@@ -1265,7 +1238,7 @@
                   <c:v>0.17307692307692299</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.17307692307692299</c:v>
+                  <c:v>0.17391304347826</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.17391304347826</c:v>
@@ -1286,7 +1259,7 @@
                   <c:v>0.17391304347826</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.17391304347826</c:v>
+                  <c:v>0.17073170731707299</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.17073170731707299</c:v>
@@ -1295,22 +1268,22 @@
                   <c:v>0.17073170731707299</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.17073170731707299</c:v>
+                  <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0.16129032258064499</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0.16129032258064499</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.16129032258064499</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.15625</c:v>
+                  <c:v>0.15151515151515099</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0.148148148148148</c:v>
@@ -1319,7 +1292,7 @@
                   <c:v>0.148148148148148</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.14285714285714199</c:v>
+                  <c:v>0.13043478260869501</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.13043478260869501</c:v>
@@ -1328,16 +1301,16 @@
                   <c:v>0.13043478260869501</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.13043478260869501</c:v>
+                  <c:v>0.105263157894736</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.105263157894736</c:v>
+                  <c:v>0.11111111111111099</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0.11111111111111099</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.11111111111111099</c:v>
+                  <c:v>7.1428571428571397E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>7.1428571428571397E-2</c:v>
@@ -1346,7 +1319,7 @@
                   <c:v>7.69230769230769E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.69230769230769E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0</c:v>
@@ -1367,13 +1340,12 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000000-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1382,7 +1354,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$C$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1417,7 +1389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1729,7 +1701,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$C$2:$C$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -1821,7 +1793,7 @@
                   <c:v>0.15476190476190399</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.155555555555555</c:v>
+                  <c:v>0.15584415584415501</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.15730337078651599</c:v>
@@ -1830,31 +1802,31 @@
                   <c:v>0.15853658536585299</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.159574468085106</c:v>
+                  <c:v>0.16049382716049301</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.160919540229885</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16250000000000001</c:v>
+                  <c:v>0.16279069767441801</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.164556962025316</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.16470588235294101</c:v>
+                  <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.16867469879517999</c:v>
+                  <c:v>0.168831168831168</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.17073170731707299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.17105263157894701</c:v>
+                  <c:v>0.17142857142857101</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.17333333333333301</c:v>
@@ -1863,13 +1835,13 @@
                   <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.17647058823529399</c:v>
+                  <c:v>0.177215189873417</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.17808219178082099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.17948717948717899</c:v>
+                  <c:v>0.180555555555555</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.18181818181818099</c:v>
@@ -1881,22 +1853,22 @@
                   <c:v>0.185714285714285</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.188405797101449</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.18918918918918901</c:v>
+                  <c:v>0.19047619047618999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.191176470588235</c:v>
+                  <c:v>0.19178082191780799</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.19354838709677399</c:v>
+                  <c:v>0.194029850746268</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.194029850746268</c:v>
+                  <c:v>0.196721311475409</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.196721311475409</c:v>
+                  <c:v>0.19696969696969599</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0.2</c:v>
@@ -1905,16 +1877,16 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.203125</c:v>
+                  <c:v>0.20338983050847401</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.20338983050847401</c:v>
+                  <c:v>0.20588235294117599</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.206349206349206</c:v>
+                  <c:v>0.20689655172413701</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.20754716981131999</c:v>
+                  <c:v>0.20895522388059701</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.21052631578947301</c:v>
@@ -1929,7 +1901,7 @@
                   <c:v>0.21568627450980299</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.21568627450980299</c:v>
+                  <c:v>0.217391304347826</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.218181818181818</c:v>
@@ -1953,13 +1925,13 @@
                   <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.22727272727272699</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0.22727272727272699</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.22727272727272699</c:v>
+                  <c:v>0.22857142857142801</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0.22857142857142801</c:v>
@@ -1977,19 +1949,19 @@
                   <c:v>0.225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.225806451612903</c:v>
+                  <c:v>0.22222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.22222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.22222222222222199</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0.214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>0.20833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.20833333333333301</c:v>
@@ -2001,7 +1973,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0.17647058823529399</c:v>
@@ -2010,19 +1982,19 @@
                   <c:v>0.17647058823529399</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.14285714285714199</c:v>
+                  <c:v>0.15384615384615299</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.15384615384615299</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.15384615384615299</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11111111111111099</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.11111111111111099</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>0</c:v>
@@ -2042,7 +2014,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000001-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2051,14 +2023,13 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$D$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>high-Choice</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2087,7 +2058,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2395,12 +2366,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$D$2:$D$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$D$2:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -2417,7 +2387,7 @@
                   <c:v>0.15454545454545399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15463917525773099</c:v>
+                  <c:v>0.15533980582524201</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.155555555555555</c:v>
@@ -2456,7 +2426,7 @@
                   <c:v>0.160919540229885</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16161616161616099</c:v>
+                  <c:v>0.161904761904761</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.16279069767441801</c:v>
@@ -2480,34 +2450,34 @@
                   <c:v>0.16867469879517999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.170454545454545</c:v>
+                  <c:v>0.17073170731707299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.17073170731707299</c:v>
+                  <c:v>0.17204301075268799</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.172839506172839</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.17391304347826</c:v>
+                  <c:v>0.17441860465116199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.17582417582417501</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.177215189873417</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.17777777777777701</c:v>
+                  <c:v>0.17857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.17948717948717899</c:v>
+                  <c:v>0.17977528089887601</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.18181818181818099</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.18292682926829201</c:v>
+                  <c:v>0.18390804597701099</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.18421052631578899</c:v>
@@ -2516,10 +2486,10 @@
                   <c:v>0.18666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.188235294117647</c:v>
+                  <c:v>0.18918918918918901</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.18918918918918901</c:v>
+                  <c:v>0.189873417721519</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.19178082191780799</c:v>
@@ -2528,28 +2498,28 @@
                   <c:v>0.194444444444444</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.19480519480519401</c:v>
+                  <c:v>0.19512195121951201</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.19718309859154901</c:v>
+                  <c:v>0.197368421052631</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.20253164556962</c:v>
+                  <c:v>0.20270270270270199</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.202898550724637</c:v>
+                  <c:v>0.20512820512820501</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.20588235294117599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.20833333333333301</c:v>
+                  <c:v>0.20895522388059701</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.21052631578947301</c:v>
+                  <c:v>0.21126760563380201</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.21212121212121199</c:v>
@@ -2558,70 +2528,70 @@
                   <c:v>0.21538461538461501</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.21666666666666601</c:v>
+                  <c:v>0.217391304347826</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.21875</c:v>
+                  <c:v>0.22033898305084701</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.220588235294117</c:v>
+                  <c:v>0.22222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.22388059701492499</c:v>
+                  <c:v>0.22413793103448201</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.225806451612903</c:v>
+                  <c:v>0.22727272727272699</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.22807017543859601</c:v>
+                  <c:v>0.22950819672131101</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.23076923076923</c:v>
+                  <c:v>0.23214285714285701</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.233333333333333</c:v>
+                  <c:v>0.234375</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.236363636363636</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.23728813559322001</c:v>
+                  <c:v>0.23880597014925301</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.24074074074074001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.24137931034482701</c:v>
+                  <c:v>0.24489795918367299</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.245283018867924</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.24561403508771901</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25454545454545402</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.25490196078431299</c:v>
+                  <c:v>0.25531914893617003</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.25531914893617003</c:v>
+                  <c:v>0.25581395348837199</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.25581395348837199</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.26086956521739102</c:v>
+                  <c:v>0.26190476190476097</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.26190476190476097</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.26315789473684198</c:v>
+                  <c:v>0.265306122448979</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.266666666666666</c:v>
@@ -2645,7 +2615,7 @@
                   <c:v>0.27272727272727199</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.27272727272727199</c:v>
+                  <c:v>0.27586206896551702</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.27586206896551702</c:v>
@@ -2675,31 +2645,31 @@
                   <c:v>0.26315789473684198</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.26315789473684198</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.25</c:v>
+                  <c:v>0.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.23076923076923</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.22222222222222199</c:v>
+                  <c:v>0.14285714285714199</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.14285714285714199</c:v>
+                  <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
@@ -2708,13 +2678,12 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000002-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2723,14 +2692,13 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$E$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>low-Entry</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2759,7 +2727,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3067,12 +3035,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$E$2:$E$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$E$2:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3164,7 +3131,7 @@
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>2.53164556962025E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.53164556962025E-2</c:v>
@@ -3185,7 +3152,7 @@
                   <c:v>2.5974025974025899E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.5974025974025899E-2</c:v>
+                  <c:v>2.6315789473684199E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2.6315789473684199E-2</c:v>
@@ -3233,7 +3200,7 @@
                   <c:v>2.8985507246376802E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.8985507246376802E-2</c:v>
+                  <c:v>2.94117647058823E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2.94117647058823E-2</c:v>
@@ -3251,7 +3218,7 @@
                   <c:v>2.9850746268656699E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.8985507246376802E-2</c:v>
+                  <c:v>1.9230769230769201E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1.8867924528301799E-2</c:v>
@@ -3266,7 +3233,7 @@
                   <c:v>1.9607843137254902E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.9607843137254902E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.02</c:v>
@@ -3278,10 +3245,10 @@
                   <c:v>2.0833333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.0833333333333301E-2</c:v>
+                  <c:v>2.1276595744680799E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.1276595744680799E-2</c:v>
+                  <c:v>2.1739130434782601E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>2.1739130434782601E-2</c:v>
@@ -3302,13 +3269,13 @@
                   <c:v>2.4390243902439001E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.4390243902439001E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>2.5641025641025599E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.5641025641025599E-2</c:v>
+                  <c:v>2.6315789473684199E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2.6315789473684199E-2</c:v>
@@ -3380,13 +3347,12 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000003-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3395,7 +3361,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$F$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3430,7 +3396,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3742,7 +3708,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$F$2:$F$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$F$2:$F$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -3864,7 +3830,7 @@
                   <c:v>4.0540540540540501E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.0540540540540501E-2</c:v>
+                  <c:v>4.1095890410958902E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>4.1095890410958902E-2</c:v>
@@ -3888,7 +3854,7 @@
                   <c:v>4.3478260869565202E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.3478260869565202E-2</c:v>
+                  <c:v>4.4117647058823498E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4.4117647058823498E-2</c:v>
@@ -3924,10 +3890,10 @@
                   <c:v>4.6875E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.6875E-2</c:v>
+                  <c:v>4.6153846153846101E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.4776119402985003E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>3.9215686274509803E-2</c:v>
@@ -3942,7 +3908,7 @@
                   <c:v>4.08163265306122E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.08163265306122E-2</c:v>
+                  <c:v>4.1666666666666602E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>4.1666666666666602E-2</c:v>
@@ -3951,7 +3917,7 @@
                   <c:v>4.2553191489361701E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.2553191489361701E-2</c:v>
+                  <c:v>4.3478260869565202E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>4.3478260869565202E-2</c:v>
@@ -3972,7 +3938,7 @@
                   <c:v>4.54545454545454E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.54545454545454E-2</c:v>
+                  <c:v>2.94117647058823E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2.94117647058823E-2</c:v>
@@ -3981,10 +3947,10 @@
                   <c:v>3.03030303030303E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.03030303030303E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>3.2258064516128997E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>3.2258064516128997E-2</c:v>
@@ -3999,19 +3965,19 @@
                   <c:v>3.5714285714285698E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.7037037037037E-2</c:v>
+                  <c:v>3.8461538461538401E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.8461538461538401E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.04</c:v>
+                  <c:v>4.1666666666666602E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>4.1666666666666602E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.1666666666666602E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0</c:v>
@@ -4055,7 +4021,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000004-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4064,14 +4030,13 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$G$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>high-Entry</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -4100,7 +4065,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4408,12 +4373,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$G$2:$G$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$G$2:$G$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -4511,7 +4475,7 @@
                   <c:v>6.5934065934065894E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.5934065934065894E-2</c:v>
+                  <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6.6666666666666596E-2</c:v>
@@ -4577,7 +4541,7 @@
                   <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.6666666666666596E-2</c:v>
+                  <c:v>6.5573770491803199E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>6.6666666666666596E-2</c:v>
@@ -4610,7 +4574,7 @@
                   <c:v>6.7796610169491497E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.6666666666666596E-2</c:v>
+                  <c:v>6.5217391304347797E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>6.3829787234042507E-2</c:v>
@@ -4619,7 +4583,7 @@
                   <c:v>6.3829787234042507E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.3829787234042507E-2</c:v>
+                  <c:v>6.5217391304347797E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>6.5217391304347797E-2</c:v>
@@ -4640,7 +4604,7 @@
                   <c:v>6.8181818181818094E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.6666666666666596E-2</c:v>
+                  <c:v>5.8823529411764698E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>5.7142857142857099E-2</c:v>
@@ -4652,10 +4616,10 @@
                   <c:v>5.8823529411764698E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.8823529411764698E-2</c:v>
+                  <c:v>6.0606060606060601E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.0606060606060601E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>6.25E-2</c:v>
@@ -4664,7 +4628,7 @@
                   <c:v>6.4516129032257993E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.4516129032257993E-2</c:v>
+                  <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>6.6666666666666596E-2</c:v>
@@ -4682,22 +4646,22 @@
                   <c:v>4.7619047619047603E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05</c:v>
+                  <c:v>5.2631578947368397E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.2631578947368397E-2</c:v>
+                  <c:v>5.5555555555555497E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.5555555555555497E-2</c:v>
+                  <c:v>5.8823529411764698E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.8823529411764698E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.6666666666666596E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0</c:v>
@@ -4721,13 +4685,12 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000005-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4736,14 +4699,13 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$H$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>low-Exit</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -4778,7 +4740,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5086,12 +5048,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$H$2:$H$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$H$2:$H$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5399,13 +5360,12 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000006-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5414,7 +5374,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$I$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5455,7 +5415,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -5767,7 +5727,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$I$2:$I$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$I$2:$I$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -6080,7 +6040,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000007-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6089,14 +6049,13 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$J$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>high-Exit</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -6131,7 +6090,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -6439,12 +6398,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$J$2:$J$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$J$2:$J$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -6752,13 +6710,12 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000008-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6767,14 +6724,13 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$K$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>low-Region</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -6809,7 +6765,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -7117,12 +7073,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$K$2:$K$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$K$2:$K$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -7232,7 +7187,7 @@
                   <c:v>3.5294117647058802E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5294117647058802E-2</c:v>
+                  <c:v>3.5714285714285698E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.5714285714285698E-2</c:v>
@@ -7265,16 +7220,16 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.04</c:v>
+                  <c:v>4.0540540540540501E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.0540540540540501E-2</c:v>
+                  <c:v>4.1095890410958902E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4.1666666666666602E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.1666666666666602E-2</c:v>
+                  <c:v>4.22535211267605E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4.2857142857142802E-2</c:v>
@@ -7301,10 +7256,10 @@
                   <c:v>4.7619047619047603E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.8387096774193498E-2</c:v>
+                  <c:v>4.9180327868852403E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9180327868852403E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>5.0847457627118599E-2</c:v>
@@ -7316,10 +7271,10 @@
                   <c:v>5.2631578947368397E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.3571428571428499E-2</c:v>
+                  <c:v>5.4545454545454501E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.4545454545454501E-2</c:v>
+                  <c:v>5.5555555555555497E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>5.6603773584905599E-2</c:v>
@@ -7328,82 +7283,82 @@
                   <c:v>5.7692307692307598E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.8823529411764698E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.06</c:v>
+                  <c:v>6.1224489795918297E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.3829787234042507E-2</c:v>
+                  <c:v>6.5217391304347797E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.5217391304347797E-2</c:v>
+                  <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>6.8181818181818094E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.9767441860465101E-2</c:v>
+                  <c:v>7.1428571428571397E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.1428571428571397E-2</c:v>
+                  <c:v>7.3170731707316999E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.69230769230769E-2</c:v>
+                  <c:v>7.8947368421052599E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.8947368421052599E-2</c:v>
+                  <c:v>8.1081081081081002E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.3333333333333301E-2</c:v>
+                  <c:v>8.5714285714285701E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.5714285714285701E-2</c:v>
+                  <c:v>8.8235294117646995E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>9.0909090909090898E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.375E-2</c:v>
+                  <c:v>9.6774193548387094E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.6774193548387094E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.10344827586206801</c:v>
+                  <c:v>0.107142857142857</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.107142857142857</c:v>
+                  <c:v>0.11111111111111099</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.115384615384615</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.12</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.13043478260869501</c:v>
+                  <c:v>0.13636363636363599</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.13636363636363599</c:v>
+                  <c:v>0.14285714285714199</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.15</c:v>
+                  <c:v>0.157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.157894736842105</c:v>
+                  <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.17647058823529399</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.214285714285714</c:v>
@@ -7418,25 +7373,24 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.25</c:v>
-                </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000009-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7445,7 +7399,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$L$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7486,7 +7440,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -7798,7 +7752,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$L$2:$L$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$L$2:$L$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -7857,13 +7811,13 @@
                   <c:v>4.1666666666666602E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1666666666666602E-2</c:v>
+                  <c:v>4.2105263157894701E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4.2105263157894701E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.2105263157894701E-2</c:v>
+                  <c:v>4.2553191489361701E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.2553191489361701E-2</c:v>
@@ -7917,13 +7871,13 @@
                   <c:v>4.8780487804878002E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.8780487804878002E-2</c:v>
+                  <c:v>4.9382716049382699E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9382716049382699E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.05</c:v>
+                  <c:v>5.0632911392405E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>5.0632911392405E-2</c:v>
@@ -7968,16 +7922,16 @@
                   <c:v>6.0606060606060601E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.15384615384615E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>6.3492063492063405E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.3492063492063405E-2</c:v>
+                  <c:v>6.4516129032257993E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.4516129032257993E-2</c:v>
+                  <c:v>6.5573770491803199E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>6.6666666666666596E-2</c:v>
@@ -7989,10 +7943,10 @@
                   <c:v>6.8965517241379296E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.0175438596491196E-2</c:v>
+                  <c:v>7.1428571428571397E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.1428571428571397E-2</c:v>
+                  <c:v>7.2727272727272696E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>7.4074074074074001E-2</c:v>
@@ -8001,10 +7955,10 @@
                   <c:v>7.5471698113207503E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.69230769230769E-2</c:v>
+                  <c:v>7.8431372549019607E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.8431372549019607E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>8.16326530612244E-2</c:v>
@@ -8013,34 +7967,34 @@
                   <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.5106382978723402E-2</c:v>
+                  <c:v>8.6956521739130405E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.6956521739130405E-2</c:v>
+                  <c:v>8.8888888888888795E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>9.0909090909090898E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.3023255813953404E-2</c:v>
+                  <c:v>9.5238095238095205E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.5238095238095205E-2</c:v>
+                  <c:v>9.7560975609756101E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.10256410256410201</c:v>
+                  <c:v>0.105263157894736</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.105263157894736</c:v>
+                  <c:v>0.108108108108108</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.11111111111111099</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.114285714285714</c:v>
+                  <c:v>0.11764705882352899</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0.12121212121212099</c:v>
@@ -8049,61 +8003,61 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.12903225806451599</c:v>
+                  <c:v>0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>0.13793103448275801</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.14285714285714199</c:v>
+                  <c:v>0.148148148148148</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.148148148148148</c:v>
+                  <c:v>0.15384615384615299</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0.17391304347826</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.17391304347826</c:v>
+                  <c:v>0.18181818181818099</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.19047619047618999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.19047619047618999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.2</c:v>
+                  <c:v>0.214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>0.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.23076923076923</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0.27272727272727199</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.375</c:v>
-                </c:pt>
                 <c:pt idx="98">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8111,7 +8065,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{0000000A-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8120,14 +8074,13 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$M$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>high-Region</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -8162,7 +8115,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -8470,12 +8423,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$M$2:$M$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$M$2:$M$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -8534,7 +8486,7 @@
                   <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6666666666666596E-2</c:v>
+                  <c:v>6.7307692307692304E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6.7415730337078594E-2</c:v>
@@ -8549,13 +8501,13 @@
                   <c:v>6.8627450980392093E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.8965517241379296E-2</c:v>
+                  <c:v>6.9306930693069299E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6.9767441860465101E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>7.0588235294117604E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7.0588235294117604E-2</c:v>
@@ -8573,7 +8525,7 @@
                   <c:v>7.3170731707316999E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.3170731707316999E-2</c:v>
+                  <c:v>7.3684210526315699E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7.4468085106382906E-2</c:v>
@@ -8588,7 +8540,7 @@
                   <c:v>7.69230769230769E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.69230769230769E-2</c:v>
+                  <c:v>7.7777777777777696E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>7.7922077922077906E-2</c:v>
@@ -8597,16 +8549,16 @@
                   <c:v>7.8947368421052599E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.9545454545454503E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.04597701149425E-2</c:v>
+                  <c:v>8.1081081081081002E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.1395348837209294E-2</c:v>
+                  <c:v>8.2191780821917804E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.2352941176470504E-2</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>8.3333333333333301E-2</c:v>
@@ -8654,40 +8606,40 @@
                   <c:v>0.10344827586206801</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.105263157894736</c:v>
+                  <c:v>0.10606060606060599</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.107142857142857</c:v>
+                  <c:v>0.107692307692307</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.109375</c:v>
+                  <c:v>0.11111111111111099</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.11111111111111099</c:v>
+                  <c:v>0.113207547169811</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.114754098360655</c:v>
+                  <c:v>0.115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.116666666666666</c:v>
+                  <c:v>0.11764705882352899</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.122448979591836</c:v>
+                  <c:v>0.122807017543859</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.12765957446808501</c:v>
+                  <c:v>0.12962962962962901</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.13043478260869501</c:v>
+                  <c:v>0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.134615384615384</c:v>
+                  <c:v>0.13636363636363599</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.13953488372093001</c:v>
@@ -8699,13 +8651,13 @@
                   <c:v>0.146341463414634</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.15</c:v>
+                  <c:v>0.15217391304347799</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.15384615384615299</c:v>
+                  <c:v>0.157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.15909090909090901</c:v>
+                  <c:v>0.162162162162162</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0.16666666666666599</c:v>
@@ -8714,19 +8666,19 @@
                   <c:v>0.17142857142857101</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.17647058823529399</c:v>
+                  <c:v>0.17948717948717899</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.18181818181818099</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.19354838709677399</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.19354838709677399</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.2</c:v>
+                  <c:v>0.20689655172413701</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0.214285714285714</c:v>
@@ -8744,28 +8696,28 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.26086956521739102</c:v>
+                  <c:v>0.26315789473684198</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.26315789473684198</c:v>
+                  <c:v>0.27777777777777701</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.27777777777777701</c:v>
+                  <c:v>0.29411764705882298</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.29411764705882298</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.30769230769230699</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.30769230769230699</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>0.36363636363636298</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.36363636363636298</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0.375</c:v>
@@ -8777,19 +8729,18 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{0000000B-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8798,14 +8749,13 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$N$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>low-State</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -8843,7 +8793,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -9151,12 +9101,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$N$2:$N$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$N$2:$N$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -9215,7 +9164,7 @@
                   <c:v>0.13793103448275801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13829787234042501</c:v>
+                  <c:v>0.13861386138613799</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.13953488372093001</c:v>
@@ -9224,7 +9173,7 @@
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14117647058823499</c:v>
+                  <c:v>0.141304347826086</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.14141414141414099</c:v>
@@ -9236,7 +9185,7 @@
                   <c:v>0.14285714285714199</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.14444444444444399</c:v>
+                  <c:v>0.14457831325301199</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.14583333333333301</c:v>
@@ -9251,16 +9200,16 @@
                   <c:v>0.148148148148148</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.14942528735632099</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.15053763440860199</c:v>
+                  <c:v>0.15116279069767399</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.151898734177215</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.152941176470588</c:v>
+                  <c:v>0.15384615384615299</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.15476190476190399</c:v>
@@ -9269,28 +9218,28 @@
                   <c:v>0.15584415584415501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.156626506024096</c:v>
+                  <c:v>0.157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.15853658536585299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.16</c:v>
+                  <c:v>0.16049382716049301</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.160919540229885</c:v>
+                  <c:v>0.162162162162162</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.16250000000000001</c:v>
+                  <c:v>0.16279069767441801</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.164383561643835</c:v>
+                  <c:v>0.164556962025316</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0.168831168831168</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.169014084507042</c:v>
@@ -9299,13 +9248,13 @@
                   <c:v>0.17142857142857101</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.17333333333333301</c:v>
+                  <c:v>0.17391304347826</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.17460317460317401</c:v>
+                  <c:v>0.17567567567567499</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.17647058823529399</c:v>
+                  <c:v>0.17741935483870899</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.17910447761194001</c:v>
@@ -9314,25 +9263,25 @@
                   <c:v>0.18181818181818099</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.183098591549295</c:v>
+                  <c:v>0.18421052631578899</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.18461538461538399</c:v>
+                  <c:v>0.186440677966101</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.188405797101449</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.18965517241379301</c:v>
+                  <c:v>0.19047619047618999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.19298245614035001</c:v>
+                  <c:v>0.19354838709677399</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.194029850746268</c:v>
+                  <c:v>0.19642857142857101</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.196721311475409</c:v>
+                  <c:v>0.19696969696969599</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0.2</c:v>
@@ -9341,7 +9290,7 @@
                   <c:v>0.20338983050847401</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.203703703703703</c:v>
+                  <c:v>0.20689655172413701</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.20754716981131999</c:v>
@@ -9350,19 +9299,19 @@
                   <c:v>0.21153846153846101</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>0.21568627450980299</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.21568627450980299</c:v>
+                  <c:v>0.218181818181818</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.22222222222222199</c:v>
+                  <c:v>0.22448979591836701</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.22641509433962201</c:v>
+                  <c:v>0.22727272727272699</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.22916666666666599</c:v>
@@ -9371,49 +9320,49 @@
                   <c:v>0.232558139534883</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.23404255319148901</c:v>
+                  <c:v>0.238095238095238</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.238095238095238</c:v>
+                  <c:v>0.23913043478260801</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.24390243902438999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.24390243902438999</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.25</c:v>
+                  <c:v>0.256410256410256</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.256410256410256</c:v>
+                  <c:v>0.25714285714285701</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.25714285714285701</c:v>
+                  <c:v>0.26315789473684198</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.26470588235294101</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.266666666666666</c:v>
+                  <c:v>0.27027027027027001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.27272727272727199</c:v>
+                  <c:v>0.27586206896551702</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.27586206896551702</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.27586206896551702</c:v>
+                  <c:v>0.28125</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0.28571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>0.29166666666666602</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.29166666666666602</c:v>
@@ -9437,40 +9386,39 @@
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.30769230769230699</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.30769230769230699</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.3</c:v>
-                </c:pt>
                 <c:pt idx="96">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.28571428571428498</c:v>
-                </c:pt>
                 <c:pt idx="98">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.25</c:v>
-                </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{0000000C-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9479,7 +9427,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$O$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9523,7 +9471,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -9835,7 +9783,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$O$2:$O$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$O$2:$O$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -9852,7 +9800,7 @@
                   <c:v>0.14953271028037299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14953271028037299</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.15</c:v>
@@ -9876,7 +9824,7 @@
                   <c:v>0.15217391304347799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15238095238095201</c:v>
+                  <c:v>0.15306122448979501</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.15306122448979501</c:v>
@@ -9894,7 +9842,7 @@
                   <c:v>0.155555555555555</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15625</c:v>
+                  <c:v>0.15686274509803899</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.15730337078651599</c:v>
@@ -9906,13 +9854,13 @@
                   <c:v>0.15909090909090901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.159574468085106</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.160919540229885</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16161616161616099</c:v>
+                  <c:v>0.16279069767441801</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.16304347826086901</c:v>
@@ -9921,13 +9869,13 @@
                   <c:v>0.16470588235294101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.164835164835164</c:v>
+                  <c:v>0.164948453608247</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0.168421052631578</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.16867469879517999</c:v>
@@ -9936,13 +9884,13 @@
                   <c:v>0.170454545454545</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.17105263157894701</c:v>
+                  <c:v>0.17204301075268799</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.172839506172839</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.17391304347826</c:v>
+                  <c:v>0.17441860465116199</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.17567567567567499</c:v>
@@ -9954,37 +9902,37 @@
                   <c:v>0.17857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.17977528089887601</c:v>
+                  <c:v>0.180555555555555</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.18181818181818099</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.183098591549295</c:v>
+                  <c:v>0.18390804597701099</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.18518518518518501</c:v>
+                  <c:v>0.185714285714285</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.18666666666666601</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.188405797101449</c:v>
+                  <c:v>0.18918918918918901</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.191176470588235</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.19230769230769201</c:v>
+                  <c:v>0.194029850746268</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.194444444444444</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.19696969696969599</c:v>
+                  <c:v>0.19718309859154901</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.19753086419752999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.2</c:v>
@@ -9996,46 +9944,46 @@
                   <c:v>0.20588235294117599</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.206349206349206</c:v>
+                  <c:v>0.20833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.209677419354838</c:v>
+                  <c:v>0.21052631578947301</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.21311475409836</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.21538461538461501</c:v>
+                  <c:v>0.21666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.217391304347826</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.22033898305084701</c:v>
+                  <c:v>0.22222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.22388059701492499</c:v>
+                  <c:v>0.22413793103448201</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.22641509433962201</c:v>
+                  <c:v>0.22807017543859601</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.22950819672131101</c:v>
+                  <c:v>0.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.23214285714285701</c:v>
+                  <c:v>0.233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0.236363636363636</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.24</c:v>
+                  <c:v>0.24074074074074001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.24137931034482701</c:v>
+                  <c:v>0.24489795918367299</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.245283018867924</c:v>
+                  <c:v>0.24561403508771901</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.25</c:v>
@@ -10044,16 +9992,16 @@
                   <c:v>0.25490196078431299</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.25581395348837199</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.26086956521739102</c:v>
+                  <c:v>0.26190476190476097</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.265306122448979</c:v>
+                  <c:v>0.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.26829268292682901</c:v>
+                  <c:v>0.27083333333333298</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.27500000000000002</c:v>
@@ -10062,67 +10010,67 @@
                   <c:v>0.27906976744186002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.28205128205128199</c:v>
+                  <c:v>0.28571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>0.28947368421052599</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.28947368421052599</c:v>
+                  <c:v>0.29411764705882298</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.29411764705882298</c:v>
+                  <c:v>0.29729729729729698</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.30303030303030298</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.30555555555555503</c:v>
+                  <c:v>0.31034482758620602</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.32142857142857101</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.32142857142857101</c:v>
+                  <c:v>0.32258064516128998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.32258064516128998</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>0.34615384615384598</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.34782608695652101</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.34782608695652101</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.35</c:v>
+                  <c:v>0.36363636363636298</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.36363636363636298</c:v>
+                  <c:v>0.36842105263157798</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.36842105263157798</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.375</c:v>
+                  <c:v>0.38461538461538403</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.38461538461538403</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.38461538461538403</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.4</c:v>
@@ -10131,13 +10079,13 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.42857142857142799</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -10148,7 +10096,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{0000000D-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10157,14 +10105,13 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$P$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>high-State</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -10202,7 +10149,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -10510,12 +10457,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$P$2:$P$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$P$2:$P$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -10592,25 +10538,25 @@
                   <c:v>0.188235294117647</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.18947368421052599</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.19101123595505601</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.19191919191919099</c:v>
+                  <c:v>0.19277108433734899</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.19354838709677399</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.19512195121951201</c:v>
+                  <c:v>0.195402298850574</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.19565217391304299</c:v>
+                  <c:v>0.19587628865979301</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.19767441860465099</c:v>
+                  <c:v>0.19780219780219699</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.2</c:v>
@@ -10634,34 +10580,34 @@
                   <c:v>0.209302325581395</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.21052631578947301</c:v>
+                  <c:v>0.211111111111111</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.21249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>0.215189873417721</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.21621621621621601</c:v>
+                  <c:v>0.21686746987951799</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.21839080459770099</c:v>
+                  <c:v>0.21917808219178</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.22077922077921999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.22222222222222199</c:v>
+                  <c:v>0.22368421052631501</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.22535211267605601</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.22727272727272699</c:v>
+                  <c:v>0.22857142857142801</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.22972972972972899</c:v>
+                  <c:v>0.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.232876712328767</c:v>
@@ -10670,43 +10616,43 @@
                   <c:v>0.23529411764705799</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.238095238095238</c:v>
+                  <c:v>0.23880597014925301</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.23943661971830901</c:v>
+                  <c:v>0.241935483870967</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.24242424242424199</c:v>
+                  <c:v>0.24285714285714199</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.24590163934426201</c:v>
+                  <c:v>0.246153846153846</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.25</c:v>
+                  <c:v>0.25373134328358199</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.25423728813559299</c:v>
+                  <c:v>0.25454545454545402</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.25806451612903197</c:v>
+                  <c:v>0.25862068965517199</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.26229508196721302</c:v>
+                  <c:v>0.26315789473684198</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.265306122448979</c:v>
+                  <c:v>0.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.26785714285714202</c:v>
+                  <c:v>0.26984126984126899</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.27272727272727199</c:v>
+                  <c:v>0.27419354838709598</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.27586206896551702</c:v>
+                  <c:v>0.27777777777777701</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.28000000000000003</c:v>
@@ -10715,64 +10661,64 @@
                   <c:v>0.28301886792452802</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>0.28846153846153799</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.28888888888888797</c:v>
+                  <c:v>0.29166666666666602</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.29411764705882298</c:v>
+                  <c:v>0.29545454545454503</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.29787234042553101</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0.30434782608695599</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.30769230769230699</c:v>
+                  <c:v>0.30952380952380898</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.31111111111111101</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.31707317073170699</c:v>
+                  <c:v>0.31818181818181801</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.32432432432432401</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.32558139534883701</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>0.34146341463414598</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.34285714285714203</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.35135135135135098</c:v>
+                  <c:v>0.35294117647058798</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.35294117647058798</c:v>
+                  <c:v>0.35483870967741898</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.36111111111111099</c:v>
+                  <c:v>0.36363636363636298</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.36666666666666597</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.37037037037037002</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0.37931034482758602</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.38461538461538403</c:v>
+                  <c:v>0.39130434782608697</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.39130434782608697</c:v>
@@ -10784,19 +10730,19 @@
                   <c:v>0.40909090909090901</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.40909090909090901</c:v>
+                  <c:v>0.42105263157894701</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.42105263157894701</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.42105263157894701</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.46153846153846101</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0.46153846153846101</c:v>
@@ -10805,31 +10751,30 @@
                   <c:v>0.45454545454545398</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.45454545454545398</c:v>
+                  <c:v>0.44444444444444398</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0.44444444444444398</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.42857142857142799</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{0000000E-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10838,14 +10783,13 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$Q$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>low-Statechart</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -10883,7 +10827,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -11191,12 +11135,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$Q$2:$Q$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$Q$2:$Q$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -11249,7 +11192,7 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.01</c:v>
+                  <c:v>1.01010101010101E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.01010101010101E-2</c:v>
@@ -11270,7 +11213,7 @@
                   <c:v>1.04166666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.04166666666666E-2</c:v>
+                  <c:v>1.0526315789473601E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.0526315789473601E-2</c:v>
@@ -11279,7 +11222,7 @@
                   <c:v>1.0638297872340399E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0638297872340399E-2</c:v>
+                  <c:v>1.0752688172042999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.0752688172042999E-2</c:v>
@@ -11291,7 +11234,7 @@
                   <c:v>1.09890109890109E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.09890109890109E-2</c:v>
+                  <c:v>1.1111111111111099E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.1111111111111099E-2</c:v>
@@ -11309,10 +11252,10 @@
                   <c:v>1.1627906976744099E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1627906976744099E-2</c:v>
+                  <c:v>1.1764705882352899E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1764705882352899E-2</c:v>
+                  <c:v>1.1904761904761901E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1.1904761904761901E-2</c:v>
@@ -11351,19 +11294,19 @@
                   <c:v>1.3698630136986301E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.38888888888888E-2</c:v>
+                  <c:v>1.4084507042253501E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4084507042253501E-2</c:v>
+                  <c:v>1.42857142857142E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.42857142857142E-2</c:v>
+                  <c:v>1.4492753623188401E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.4492753623188401E-2</c:v>
+                  <c:v>1.47058823529411E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.47058823529411E-2</c:v>
+                  <c:v>1.4925373134328301E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>1.51515151515151E-2</c:v>
@@ -11375,10 +11318,10 @@
                   <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.5873015873015799E-2</c:v>
+                  <c:v>1.6129032258064498E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.6129032258064498E-2</c:v>
+                  <c:v>1.63934426229508E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.6666666666666601E-2</c:v>
@@ -11390,7 +11333,7 @@
                   <c:v>1.72413793103448E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.7543859649122799E-2</c:v>
+                  <c:v>1.7857142857142801E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1.8181818181818101E-2</c:v>
@@ -11399,118 +11342,117 @@
                   <c:v>1.85185185185185E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.8867924528301799E-2</c:v>
+                  <c:v>1.9230769230769201E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.9230769230769201E-2</c:v>
+                  <c:v>1.9607843137254902E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.04081632653061E-2</c:v>
+                  <c:v>2.0833333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.0833333333333301E-2</c:v>
+                  <c:v>2.1276595744680799E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>2.1739130434782601E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.2222222222222199E-2</c:v>
+                  <c:v>2.27272727272727E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.27272727272727E-2</c:v>
+                  <c:v>2.3255813953488299E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>2.3809523809523801E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.4390243902439001E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2.5641025641025599E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.6315789473684199E-2</c:v>
+                  <c:v>2.7027027027027001E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.7027027027027001E-2</c:v>
+                  <c:v>2.77777777777777E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.8571428571428501E-2</c:v>
+                  <c:v>2.94117647058823E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.94117647058823E-2</c:v>
+                  <c:v>3.03030303030303E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.2258064516128997E-2</c:v>
+                  <c:v>3.3333333333333298E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>3.4482758620689599E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.5714285714285698E-2</c:v>
+                  <c:v>3.7037037037037E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.8461538461538401E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.04</c:v>
+                  <c:v>4.1666666666666602E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.3478260869565202E-2</c:v>
+                  <c:v>4.54545454545454E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.54545454545454E-2</c:v>
+                  <c:v>4.7619047619047603E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.05</c:v>
+                  <c:v>5.2631578947368397E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.2631578947368397E-2</c:v>
+                  <c:v>5.5555555555555497E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.8823529411764698E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.1428571428571397E-2</c:v>
+                  <c:v>7.69230769230769E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.3333333333333301E-2</c:v>
+                  <c:v>9.0909090909090898E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.0909090909090898E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.11111111111111099</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.14285714285714199</c:v>
+                  <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{0000000F-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11519,7 +11461,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$R$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11563,7 +11505,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -11875,7 +11817,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$R$2:$R$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$R$2:$R$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -11973,7 +11915,7 @@
                   <c:v>1.1764705882352899E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1764705882352899E-2</c:v>
+                  <c:v>1.1904761904761901E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.1904761904761901E-2</c:v>
@@ -11985,10 +11927,10 @@
                   <c:v>1.21951219512195E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.21951219512195E-2</c:v>
+                  <c:v>1.23456790123456E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.23456790123456E-2</c:v>
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.2500000000000001E-2</c:v>
@@ -12006,16 +11948,16 @@
                   <c:v>1.3157894736842099E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3157894736842099E-2</c:v>
+                  <c:v>1.3333333333333299E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3333333333333299E-2</c:v>
+                  <c:v>1.35135135135135E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.35135135135135E-2</c:v>
+                  <c:v>1.3698630136986301E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3698630136986301E-2</c:v>
+                  <c:v>1.38888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1.38888888888888E-2</c:v>
@@ -12030,25 +11972,25 @@
                   <c:v>1.4492753623188401E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.47058823529411E-2</c:v>
+                  <c:v>1.4925373134328301E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4925373134328301E-2</c:v>
+                  <c:v>1.51515151515151E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.51515151515151E-2</c:v>
+                  <c:v>1.53846153846153E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.53846153846153E-2</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>1.5873015873015799E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5873015873015799E-2</c:v>
+                  <c:v>1.6129032258064498E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.6129032258064498E-2</c:v>
+                  <c:v>1.63934426229508E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1.6666666666666601E-2</c:v>
@@ -12066,13 +12008,13 @@
                   <c:v>1.7857142857142801E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.8181818181818101E-2</c:v>
+                  <c:v>1.85185185185185E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.85185185185185E-2</c:v>
+                  <c:v>1.8867924528301799E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.8867924528301799E-2</c:v>
+                  <c:v>1.9230769230769201E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.9607843137254902E-2</c:v>
@@ -12081,10 +12023,10 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.04081632653061E-2</c:v>
+                  <c:v>2.0833333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.0833333333333301E-2</c:v>
+                  <c:v>2.1276595744680799E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>2.1739130434782601E-2</c:v>
@@ -12093,94 +12035,94 @@
                   <c:v>2.2222222222222199E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.27272727272727E-2</c:v>
+                  <c:v>2.3255813953488299E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3255813953488299E-2</c:v>
+                  <c:v>2.3809523809523801E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>2.4390243902439001E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>2.5641025641025599E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.5641025641025599E-2</c:v>
+                  <c:v>2.6315789473684199E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2.7027027027027001E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.77777777777777E-2</c:v>
+                  <c:v>2.8571428571428501E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.8571428571428501E-2</c:v>
+                  <c:v>2.94117647058823E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>3.03030303030303E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>3.2258064516128997E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.2258064516128997E-2</c:v>
+                  <c:v>3.3333333333333298E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>3.4482758620689599E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.5714285714285698E-2</c:v>
+                  <c:v>3.7037037037037E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>3.8461538461538401E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.04</c:v>
+                  <c:v>4.1666666666666602E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.1666666666666602E-2</c:v>
+                  <c:v>4.3478260869565202E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.54545454545454E-2</c:v>
+                  <c:v>4.7619047619047603E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.7619047619047603E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.2631578947368397E-2</c:v>
+                  <c:v>5.5555555555555497E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.5555555555555497E-2</c:v>
+                  <c:v>5.8823529411764698E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.6666666666666596E-2</c:v>
+                  <c:v>7.1428571428571397E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.69230769230769E-2</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.3333333333333301E-2</c:v>
+                  <c:v>9.0909090909090898E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11111111111111099</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.11111111111111099</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.14285714285714199</c:v>
+                  <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12188,7 +12130,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000010-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12197,14 +12139,13 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$S$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>high-Statechart</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -12242,7 +12183,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -12550,12 +12491,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$S$2:$S$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$S$2:$S$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -12593,7 +12533,7 @@
                   <c:v>1.0869565217391301E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0869565217391301E-2</c:v>
+                  <c:v>1.09890109890109E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.09890109890109E-2</c:v>
@@ -12626,7 +12566,7 @@
                   <c:v>1.1494252873563199E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1494252873563199E-2</c:v>
+                  <c:v>1.1627906976744099E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.1627906976744099E-2</c:v>
@@ -12641,7 +12581,7 @@
                   <c:v>1.1904761904761901E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1904761904761901E-2</c:v>
+                  <c:v>1.20481927710843E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.20481927710843E-2</c:v>
@@ -12662,7 +12602,7 @@
                   <c:v>1.26582278481012E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.26582278481012E-2</c:v>
+                  <c:v>1.2820512820512799E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1.2820512820512799E-2</c:v>
@@ -12677,10 +12617,10 @@
                   <c:v>1.3333333333333299E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3333333333333299E-2</c:v>
+                  <c:v>1.35135135135135E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.35135135135135E-2</c:v>
+                  <c:v>1.3698630136986301E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1.3698630136986301E-2</c:v>
@@ -12701,43 +12641,43 @@
                   <c:v>1.47058823529411E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.47058823529411E-2</c:v>
+                  <c:v>1.4925373134328301E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4925373134328301E-2</c:v>
+                  <c:v>1.51515151515151E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.51515151515151E-2</c:v>
+                  <c:v>1.53846153846153E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.53846153846153E-2</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.5625E-2</c:v>
+                  <c:v>1.5873015873015799E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5873015873015799E-2</c:v>
+                  <c:v>1.6129032258064498E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.6129032258064498E-2</c:v>
+                  <c:v>1.63934426229508E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.63934426229508E-2</c:v>
+                  <c:v>1.6666666666666601E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.6666666666666601E-2</c:v>
+                  <c:v>1.6949152542372801E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.6949152542372801E-2</c:v>
+                  <c:v>1.72413793103448E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.72413793103448E-2</c:v>
+                  <c:v>1.7543859649122799E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7543859649122799E-2</c:v>
+                  <c:v>1.7857142857142801E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.7857142857142801E-2</c:v>
+                  <c:v>1.8181818181818101E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.85185185185185E-2</c:v>
@@ -12755,13 +12695,13 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.04081632653061E-2</c:v>
+                  <c:v>2.0833333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0833333333333301E-2</c:v>
+                  <c:v>2.1276595744680799E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.1276595744680799E-2</c:v>
+                  <c:v>2.1739130434782601E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>2.2222222222222199E-2</c:v>
@@ -12770,13 +12710,13 @@
                   <c:v>2.27272727272727E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.3255813953488299E-2</c:v>
+                  <c:v>2.3809523809523801E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3809523809523801E-2</c:v>
+                  <c:v>2.4390243902439001E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.4390243902439001E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>2.5641025641025599E-2</c:v>
@@ -12785,91 +12725,90 @@
                   <c:v>2.6315789473684199E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.7027027027027001E-2</c:v>
+                  <c:v>2.77777777777777E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.77777777777777E-2</c:v>
+                  <c:v>2.8571428571428501E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2.94117647058823E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.03030303030303E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>3.2258064516128997E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.2258064516128997E-2</c:v>
+                  <c:v>3.3333333333333298E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>3.4482758620689599E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.5714285714285698E-2</c:v>
+                  <c:v>3.7037037037037E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.7037037037037E-2</c:v>
+                  <c:v>3.8461538461538401E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.04</c:v>
+                  <c:v>4.1666666666666602E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.1666666666666602E-2</c:v>
+                  <c:v>4.3478260869565202E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.3478260869565202E-2</c:v>
+                  <c:v>4.54545454545454E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.7619047619047603E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.05</c:v>
+                  <c:v>5.2631578947368397E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>5.5555555555555497E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.8823529411764698E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.1428571428571397E-2</c:v>
+                  <c:v>7.69230769230769E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.69230769230769E-2</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.0909090909090898E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11111111111111099</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.125</c:v>
+                  <c:v>0.14285714285714199</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.14285714285714199</c:v>
+                  <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000011-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12878,14 +12817,13 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$T$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>low-Transition</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -12920,7 +12858,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -13228,12 +13166,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$T$2:$T$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$T$2:$T$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -13280,52 +13217,52 @@
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.56976744186046502</c:v>
+                  <c:v>0.56862745098039202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.56730769230769196</c:v>
+                  <c:v>0.56701030927835006</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.56521739130434701</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.56382978723404198</c:v>
+                  <c:v>0.56321839080459701</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.56122448979591799</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.55913978494623595</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55681818181818099</c:v>
+                  <c:v>0.55670103092783496</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.55445544554455395</c:v>
+                  <c:v>0.55434782608695599</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.55172413793103403</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.54945054945054905</c:v>
+                  <c:v>0.54878048780487798</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.54639175257731898</c:v>
+                  <c:v>0.54545454545454497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.54347826086956497</c:v>
+                  <c:v>0.54255319148936099</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.54081632653061196</c:v>
+                  <c:v>0.54022988505747105</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.53763440860214995</c:v>
+                  <c:v>0.53749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.53488372093023195</c:v>
+                  <c:v>0.53409090909090895</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.530864197530864</c:v>
+                  <c:v>0.53012048192771</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.52747252747252704</c:v>
@@ -13334,172 +13271,172 @@
                   <c:v>0.52380952380952295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.52173913043478204</c:v>
+                  <c:v>0.518987341772151</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.51764705882352902</c:v>
+                  <c:v>0.51724137931034397</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.51249999999999996</c:v>
+                  <c:v>0.51219512195121897</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.51136363636363602</c:v>
+                  <c:v>0.50684931506849296</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.50617283950617198</c:v>
+                  <c:v>0.50588235294117601</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5</c:v>
+                  <c:v>0.49450549450549403</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.493506493506493</c:v>
+                  <c:v>0.49333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.48780487804877998</c:v>
+                  <c:v>0.487179487179487</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.48611111111111099</c:v>
+                  <c:v>0.48275862068965503</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.48</c:v>
+                  <c:v>0.47945205479452002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.47435897435897401</c:v>
+                  <c:v>0.47368421052631499</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.469879518072289</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.465753424657534</c:v>
+                  <c:v>0.46376811594202899</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.46052631578947301</c:v>
+                  <c:v>0.45833333333333298</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.455696202531645</c:v>
+                  <c:v>0.45333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.45070422535211202</c:v>
+                  <c:v>0.44776119402984998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.44444444444444398</c:v>
+                  <c:v>0.44285714285714201</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.43548387096774099</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.43333333333333302</c:v>
+                  <c:v>0.43076923076923002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.42857142857142799</c:v>
+                  <c:v>0.42622950819672101</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.421875</c:v>
+                  <c:v>0.42028985507246303</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.41666666666666602</c:v>
+                  <c:v>0.41428571428571398</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.40983606557377</c:v>
+                  <c:v>0.40677966101694901</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.40322580645161199</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.39682539682539603</c:v>
+                  <c:v>0.39393939393939298</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.390625</c:v>
+                  <c:v>0.38805970149253699</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.38333333333333303</c:v>
+                  <c:v>0.38095238095237999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.37704918032786799</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.37037037037037002</c:v>
+                  <c:v>0.36734693877551</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.36363636363636298</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.35593220338983</c:v>
+                  <c:v>0.35294117647058798</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.34693877551020402</c:v>
+                  <c:v>0.34615384615384598</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.34</c:v>
+                  <c:v>0.33928571428571402</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.32653061224489699</c:v>
+                  <c:v>0.320754716981132</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.31914893617021201</c:v>
+                  <c:v>0.31372549019607798</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.31111111111111101</c:v>
+                  <c:v>0.30612244897959101</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.30232558139534799</c:v>
+                  <c:v>0.29787234042553101</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.292682926829268</c:v>
+                  <c:v>0.28947368421052599</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>0.28205128205128199</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>0.27272727272727199</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.26829268292682901</c:v>
+                  <c:v>0.26315789473684198</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.256410256410256</c:v>
+                  <c:v>0.25581395348837199</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24390243902438999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.24242424242424199</c:v>
+                  <c:v>0.23529411764705799</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.22857142857142801</c:v>
+                  <c:v>0.225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.22222222222222199</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.21212121212121199</c:v>
+                  <c:v>0.20588235294117599</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19354838709677399</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.19230769230769201</c:v>
+                  <c:v>0.18518518518518501</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0.17857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.16</c:v>
+                  <c:v>0.15384615384615299</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.13636363636363599</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.13636363636363599</c:v>
+                  <c:v>0.13043478260869501</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0.105263157894736</c:v>
@@ -13508,16 +13445,16 @@
                   <c:v>0.105263157894736</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.105263157894736</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.6666666666666596E-2</c:v>
+                  <c:v>7.1428571428571397E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.1428571428571397E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0</c:v>
@@ -13541,13 +13478,12 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000012-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13556,7 +13492,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$U$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13597,7 +13533,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -13909,7 +13845,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$U$2:$U$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$U$2:$U$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -13947,22 +13883,22 @@
                   <c:v>0.61111111111111105</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61</c:v>
+                  <c:v>0.60952380952380902</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60869565217391297</c:v>
+                  <c:v>0.60824742268041199</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.60674157303370702</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.60465116279069697</c:v>
+                  <c:v>0.60439560439560402</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.60396039603960305</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.60215053763440796</c:v>
+                  <c:v>0.60204081632652995</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.6</c:v>
@@ -13971,7 +13907,7 @@
                   <c:v>0.59782608695652095</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59574468085106302</c:v>
+                  <c:v>0.59550561797752799</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.59340659340659296</c:v>
@@ -13980,10 +13916,10 @@
                   <c:v>0.59139784946236496</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58947368421052604</c:v>
+                  <c:v>0.58888888888888802</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.58695652173913004</c:v>
+                  <c:v>0.58620689655172398</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.58426966292134797</c:v>
@@ -13992,214 +13928,214 @@
                   <c:v>0.581395348837209</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.57894736842105199</c:v>
+                  <c:v>0.57831325301204795</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.57647058823529396</c:v>
+                  <c:v>0.57575757575757502</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.57317073170731703</c:v>
+                  <c:v>0.57303370786516805</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.56976744186046502</c:v>
+                  <c:v>0.569620253164557</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.56790123456790098</c:v>
+                  <c:v>0.56626506024096301</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.56410256410256399</c:v>
+                  <c:v>0.56321839080459701</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.56043956043956</c:v>
+                  <c:v>0.55952380952380898</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.556962025316455</c:v>
+                  <c:v>0.55681818181818099</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.55294117647058805</c:v>
+                  <c:v>0.55263157894736803</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.54945054945054905</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.54545454545454497</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.54166666666666596</c:v>
+                  <c:v>0.54054054054054002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.53846153846153799</c:v>
+                  <c:v>0.53749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.534246575342465</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.53012048192771</c:v>
+                  <c:v>0.52857142857142803</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.52631578947368396</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.52112676056338003</c:v>
+                  <c:v>0.52054794520547898</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.51764705882352902</c:v>
+                  <c:v>0.51428571428571401</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.51351351351351304</c:v>
+                  <c:v>0.51249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.50704225352112597</c:v>
+                  <c:v>0.50684931506849296</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5</c:v>
+                  <c:v>0.493670886075949</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.49253731343283502</c:v>
+                  <c:v>0.492307692307692</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.48611111111111099</c:v>
+                  <c:v>0.48529411764705799</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.48</c:v>
+                  <c:v>0.47826086956521702</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.47692307692307601</c:v>
+                  <c:v>0.476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.47058823529411697</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.46666666666666601</c:v>
+                  <c:v>0.46376811594202899</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.45901639344262202</c:v>
+                  <c:v>0.45762711864406702</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.45333333333333298</c:v>
+                  <c:v>0.45161290322580599</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.44827586206896503</c:v>
+                  <c:v>0.44615384615384601</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.44067796610169402</c:v>
+                  <c:v>0.43859649122806998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.43548387096774099</c:v>
+                  <c:v>0.43333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.42857142857142799</c:v>
+                  <c:v>0.42622950819672101</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.42307692307692302</c:v>
+                  <c:v>0.41935483870967699</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.41509433962264097</c:v>
+                  <c:v>0.41379310344827502</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.40983606557377</c:v>
+                  <c:v>0.407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.40350877192982398</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.39583333333333298</c:v>
+                  <c:v>0.39215686274509798</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.38775510204081598</c:v>
+                  <c:v>0.38461538461538403</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.381818181818181</c:v>
+                  <c:v>0.37777777777777699</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.375</c:v>
+                  <c:v>0.36956521739130399</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.36585365853658502</c:v>
+                  <c:v>0.36363636363636298</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.35849056603773499</c:v>
+                  <c:v>0.35555555555555501</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34782608695652101</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.34146341463414598</c:v>
+                  <c:v>0.34090909090909</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.32558139534883701</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.31707317073170699</c:v>
+                  <c:v>0.31578947368421001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.30769230769230699</c:v>
+                  <c:v>0.30555555555555503</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.3</c:v>
+                  <c:v>0.29729729729729698</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.29411764705882298</c:v>
+                  <c:v>0.28947368421052599</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.28205128205128199</c:v>
+                  <c:v>0.27777777777777701</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.27272727272727199</c:v>
+                  <c:v>0.27027027027027001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.26470588235294101</c:v>
+                  <c:v>0.25806451612903197</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.25806451612903197</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.24242424242424199</c:v>
+                  <c:v>0.24137931034482701</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.233333333333333</c:v>
+                  <c:v>0.23076923076923</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.22222222222222199</c:v>
+                  <c:v>0.217391304347826</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.20833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19047619047618999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.19047619047618999</c:v>
+                  <c:v>0.18181818181818099</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.18181818181818099</c:v>
+                  <c:v>0.157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.157894736842105</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.125</c:v>
+                  <c:v>0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.133333333333333</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.69230769230769E-2</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.3333333333333301E-2</c:v>
+                  <c:v>9.0909090909090898E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.0909090909090898E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0</c:v>
@@ -14222,7 +14158,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000013-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14231,14 +14167,13 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>typeStatisticsByPercentageSumma!$V$1</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>high-Transition</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -14273,7 +14208,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$A$2:$A$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -14581,12 +14516,11 @@
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>typeStatisticsByPercentageSumma!$V$2:$V$102</c:f>
+              <c:f>'100_typeStatisticsByPercentageS'!$V$2:$V$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -14624,7 +14558,7 @@
                   <c:v>0.64077669902912604</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64</c:v>
+                  <c:v>0.63917525773195805</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.63829787234042501</c:v>
@@ -14633,7 +14567,7 @@
                   <c:v>0.63725490196078405</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.63551401869158797</c:v>
+                  <c:v>0.63541666666666596</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.633663366336633</c:v>
@@ -14642,37 +14576,37 @@
                   <c:v>0.63218390804597702</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.63043478260869501</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.62886597938144295</c:v>
+                  <c:v>0.628571428571428</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.62637362637362604</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.625</c:v>
+                  <c:v>0.62376237623762298</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.62244897959183598</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.62068965517241304</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.61855670103092697</c:v>
+                  <c:v>0.61797752808988704</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.61616161616161602</c:v>
+                  <c:v>0.61538461538461497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.61363636363636298</c:v>
+                  <c:v>0.61290322580645096</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.61111111111111105</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.60869565217391297</c:v>
+                  <c:v>0.60824742268041199</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.60493827160493796</c:v>
@@ -14684,205 +14618,205 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.59756097560975596</c:v>
+                  <c:v>0.59574468085106302</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.59340659340659296</c:v>
+                  <c:v>0.59302325581395299</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.59036144578313199</c:v>
+                  <c:v>0.58974358974358898</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.58695652173913004</c:v>
+                  <c:v>0.58620689655172398</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.58426966292134797</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.58024691358024605</c:v>
+                  <c:v>0.57894736842105199</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.57647058823529396</c:v>
+                  <c:v>0.57534246575342396</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.57317073170731703</c:v>
+                  <c:v>0.57142857142857095</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.56944444444444398</c:v>
+                  <c:v>0.56756756756756699</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.56470588235294095</c:v>
+                  <c:v>0.56338028169013998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.56097560975609695</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.556962025316455</c:v>
+                  <c:v>0.55555555555555503</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.55263157894736803</c:v>
+                  <c:v>0.55128205128205099</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.54794520547945202</c:v>
+                  <c:v>0.54666666666666597</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.54285714285714204</c:v>
+                  <c:v>0.54216867469879504</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.53846153846153799</c:v>
+                  <c:v>0.53731343283582</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.534246575342465</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.52941176470588203</c:v>
+                  <c:v>0.52857142857142803</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.52380952380952295</c:v>
+                  <c:v>0.52238805970149205</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.52</c:v>
+                  <c:v>0.515625</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.51515151515151503</c:v>
+                  <c:v>0.51428571428571401</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.50793650793650702</c:v>
+                  <c:v>0.507692307692307</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.50684931506849296</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.492307692307692</c:v>
+                  <c:v>0.49180327868852403</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.48529411764705799</c:v>
+                  <c:v>0.484375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.48275862068965503</c:v>
+                  <c:v>0.48148148148148101</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.47540983606557302</c:v>
+                  <c:v>0.47368421052631499</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.469696969696969</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.46296296296296202</c:v>
+                  <c:v>0.46153846153846101</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.45614035087719201</c:v>
+                  <c:v>0.45454545454545398</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.45098039215686198</c:v>
+                  <c:v>0.44827586206896503</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.44262295081967201</c:v>
+                  <c:v>0.44230769230769201</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.43396226415094302</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.43103448275862</c:v>
+                  <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.42307692307692302</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.41666666666666602</c:v>
+                  <c:v>0.41304347826086901</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.40909090909090901</c:v>
+                  <c:v>0.407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.40384615384615302</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.39534883720930197</c:v>
+                  <c:v>0.39130434782608697</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.38636363636363602</c:v>
+                  <c:v>0.38297872340425498</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.38095238095237999</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.372093023255813</c:v>
+                  <c:v>0.36842105263157798</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.36363636363636298</c:v>
+                  <c:v>0.35897435897435898</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.35714285714285698</c:v>
+                  <c:v>0.35135135135135098</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.35</c:v>
+                  <c:v>0.34285714285714203</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.34210526315789402</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>0.32432432432432401</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.32258064516128998</c:v>
+                  <c:v>0.32142857142857101</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.31034482758620602</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.30303030303030298</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.296296296296296</c:v>
+                  <c:v>0.29032258064516098</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.28571428571428498</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.27586206896551702</c:v>
+                  <c:v>0.269230769230769</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.26086956521739102</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.26086956521739102</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.24</c:v>
+                  <c:v>0.238095238095238</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.238095238095238</c:v>
+                  <c:v>0.22222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.22222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.21052631578947301</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.15384615384615299</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.15384615384615299</c:v>
+                  <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.16666666666666599</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11111111111111099</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.11111111111111099</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -14894,13 +14828,12 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-BE51-4D3C-ADB1-02E3DE52597D}"/>
+              <c16:uniqueId val="{00000014-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14912,12 +14845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1046025440"/>
-        <c:axId val="617443440"/>
-        <c:extLst/>
+        <c:axId val="1209106576"/>
+        <c:axId val="1502827008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1046025440"/>
+        <c:axId val="1209106576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14975,14 +14907,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617443440"/>
+        <c:crossAx val="1502827008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617443440"/>
+        <c:axId val="1502827008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -15037,17 +14970,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1046025440"/>
+        <c:crossAx val="1209106576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-          <a:round/>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -15679,10 +15609,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15693,13 +15623,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291961" cy="6066408"/>
+    <xdr:ext cx="9298112" cy="6070315"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF90ADD-66C4-4284-BCDC-84186D2A6B37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7092DDA0-0A13-4D18-A0A0-3A33B79C7807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16018,11 +15948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView zoomScale="43" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection sqref="A1:V102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16378,7 +16308,7 @@
         <v>0.13829787234042501</v>
       </c>
       <c r="D6">
-        <v>0.15463917525773099</v>
+        <v>0.15533980582524201</v>
       </c>
       <c r="E6">
         <v>2.83018867924528E-2</v>
@@ -16411,7 +16341,7 @@
         <v>0.132653061224489</v>
       </c>
       <c r="O6">
-        <v>0.14953271028037299</v>
+        <v>0.15</v>
       </c>
       <c r="P6">
         <v>0.17592592592592499</v>
@@ -16899,16 +16829,16 @@
         <v>1.04166666666666E-2</v>
       </c>
       <c r="S13">
-        <v>1.0869565217391301E-2</v>
+        <v>1.09890109890109E-2</v>
       </c>
       <c r="T13">
         <v>0.57425742574257399</v>
       </c>
       <c r="U13">
-        <v>0.61</v>
+        <v>0.60952380952380902</v>
       </c>
       <c r="V13">
-        <v>0.64</v>
+        <v>0.63917525773195805</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -16955,7 +16885,7 @@
         <v>0.13541666666666599</v>
       </c>
       <c r="O14">
-        <v>0.15238095238095201</v>
+        <v>0.15306122448979501</v>
       </c>
       <c r="P14">
         <v>0.179245283018867</v>
@@ -16973,7 +16903,7 @@
         <v>0.57281553398058205</v>
       </c>
       <c r="U14">
-        <v>0.60869565217391297</v>
+        <v>0.60824742268041199</v>
       </c>
       <c r="V14">
         <v>0.63829787234042501</v>
@@ -17106,13 +17036,13 @@
         <v>1.1111111111111099E-2</v>
       </c>
       <c r="T16">
-        <v>0.56976744186046502</v>
+        <v>0.56862745098039202</v>
       </c>
       <c r="U16">
-        <v>0.60465116279069697</v>
+        <v>0.60439560439560402</v>
       </c>
       <c r="V16">
-        <v>0.63551401869158797</v>
+        <v>0.63541666666666596</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -17120,7 +17050,7 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.121495327102803</v>
+        <v>0.122222222222222</v>
       </c>
       <c r="C17">
         <v>0.14285714285714199</v>
@@ -17174,7 +17104,7 @@
         <v>1.1111111111111099E-2</v>
       </c>
       <c r="T17">
-        <v>0.56730769230769196</v>
+        <v>0.56701030927835006</v>
       </c>
       <c r="U17">
         <v>0.60396039603960305</v>
@@ -17233,7 +17163,7 @@
         <v>0.18181818181818099</v>
       </c>
       <c r="Q18">
-        <v>0.01</v>
+        <v>1.01010101010101E-2</v>
       </c>
       <c r="R18">
         <v>1.0638297872340399E-2</v>
@@ -17245,7 +17175,7 @@
         <v>0.56521739130434701</v>
       </c>
       <c r="U18">
-        <v>0.60215053763440796</v>
+        <v>0.60204081632652995</v>
       </c>
       <c r="V18">
         <v>0.63218390804597702</v>
@@ -17262,7 +17192,7 @@
         <v>0.14432989690721601</v>
       </c>
       <c r="D19">
-        <v>0.16161616161616099</v>
+        <v>0.161904761904761</v>
       </c>
       <c r="E19">
         <v>2.94117647058823E-2</v>
@@ -17310,13 +17240,13 @@
         <v>1.12359550561797E-2</v>
       </c>
       <c r="T19">
-        <v>0.56382978723404198</v>
+        <v>0.56321839080459701</v>
       </c>
       <c r="U19">
         <v>0.6</v>
       </c>
       <c r="V19">
-        <v>0.63043478260869501</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -17354,16 +17284,16 @@
         <v>3.125E-2</v>
       </c>
       <c r="L20">
-        <v>4.1666666666666602E-2</v>
+        <v>4.2105263157894701E-2</v>
       </c>
       <c r="M20">
-        <v>6.6666666666666596E-2</v>
+        <v>6.7307692307692304E-2</v>
       </c>
       <c r="N20">
-        <v>0.13829787234042501</v>
+        <v>0.13861386138613799</v>
       </c>
       <c r="O20">
-        <v>0.15625</v>
+        <v>0.15686274509803899</v>
       </c>
       <c r="P20">
         <v>0.183673469387755</v>
@@ -17384,7 +17314,7 @@
         <v>0.59782608695652095</v>
       </c>
       <c r="V20">
-        <v>0.62886597938144295</v>
+        <v>0.628571428571428</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -17446,10 +17376,10 @@
         <v>1.13636363636363E-2</v>
       </c>
       <c r="T21">
-        <v>0.56000000000000005</v>
+        <v>0.55913978494623595</v>
       </c>
       <c r="U21">
-        <v>0.59574468085106302</v>
+        <v>0.59550561797752799</v>
       </c>
       <c r="V21">
         <v>0.62637362637362604</v>
@@ -17490,7 +17420,7 @@
         <v>3.1578947368420998E-2</v>
       </c>
       <c r="L22">
-        <v>4.2105263157894701E-2</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="M22">
         <v>6.7961165048543604E-2</v>
@@ -17514,13 +17444,13 @@
         <v>1.13636363636363E-2</v>
       </c>
       <c r="T22">
-        <v>0.55681818181818099</v>
+        <v>0.55670103092783496</v>
       </c>
       <c r="U22">
         <v>0.59340659340659296</v>
       </c>
       <c r="V22">
-        <v>0.625</v>
+        <v>0.62376237623762298</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -17564,7 +17494,7 @@
         <v>6.8181818181818094E-2</v>
       </c>
       <c r="N23">
-        <v>0.14117647058823499</v>
+        <v>0.141304347826086</v>
       </c>
       <c r="O23">
         <v>0.15909090909090901</v>
@@ -17582,7 +17512,7 @@
         <v>1.1494252873563199E-2</v>
       </c>
       <c r="T23">
-        <v>0.55445544554455395</v>
+        <v>0.55434782608695599</v>
       </c>
       <c r="U23">
         <v>0.59139784946236496</v>
@@ -17635,7 +17565,7 @@
         <v>0.14141414141414099</v>
       </c>
       <c r="O24">
-        <v>0.159574468085106</v>
+        <v>0.16</v>
       </c>
       <c r="P24">
         <v>0.1875</v>
@@ -17647,16 +17577,16 @@
         <v>1.09890109890109E-2</v>
       </c>
       <c r="S24">
-        <v>1.1494252873563199E-2</v>
+        <v>1.1627906976744099E-2</v>
       </c>
       <c r="T24">
         <v>0.55172413793103403</v>
       </c>
       <c r="U24">
-        <v>0.58947368421052604</v>
+        <v>0.58888888888888802</v>
       </c>
       <c r="V24">
-        <v>0.62068965517241304</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -17697,7 +17627,7 @@
         <v>4.3010752688171998E-2</v>
       </c>
       <c r="M25">
-        <v>6.8965517241379296E-2</v>
+        <v>6.9306930693069299E-2</v>
       </c>
       <c r="N25">
         <v>0.14285714285714199</v>
@@ -17709,7 +17639,7 @@
         <v>0.188235294117647</v>
       </c>
       <c r="Q25">
-        <v>1.04166666666666E-2</v>
+        <v>1.0526315789473601E-2</v>
       </c>
       <c r="R25">
         <v>1.1111111111111099E-2</v>
@@ -17718,13 +17648,13 @@
         <v>1.1627906976744099E-2</v>
       </c>
       <c r="T25">
-        <v>0.54945054945054905</v>
+        <v>0.54878048780487798</v>
       </c>
       <c r="U25">
-        <v>0.58695652173913004</v>
+        <v>0.58620689655172398</v>
       </c>
       <c r="V25">
-        <v>0.61855670103092697</v>
+        <v>0.61797752808988704</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -17771,10 +17701,10 @@
         <v>0.14285714285714199</v>
       </c>
       <c r="O26">
-        <v>0.16161616161616099</v>
+        <v>0.16279069767441801</v>
       </c>
       <c r="P26">
-        <v>0.18947368421052599</v>
+        <v>0.19</v>
       </c>
       <c r="Q26">
         <v>1.0526315789473601E-2</v>
@@ -17786,13 +17716,13 @@
         <v>1.1764705882352899E-2</v>
       </c>
       <c r="T26">
-        <v>0.54639175257731898</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="U26">
         <v>0.58426966292134797</v>
       </c>
       <c r="V26">
-        <v>0.61616161616161602</v>
+        <v>0.61538461538461497</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -17800,13 +17730,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.12871287128712799</v>
+        <v>0.12903225806451599</v>
       </c>
       <c r="C27">
         <v>0.15116279069767399</v>
       </c>
       <c r="D27">
-        <v>0.170454545454545</v>
+        <v>0.17073170731707299</v>
       </c>
       <c r="E27">
         <v>2.5000000000000001E-2</v>
@@ -17833,10 +17763,10 @@
         <v>4.3956043956043897E-2</v>
       </c>
       <c r="M27">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0588235294117604E-2</v>
       </c>
       <c r="N27">
-        <v>0.14444444444444399</v>
+        <v>0.14457831325301199</v>
       </c>
       <c r="O27">
         <v>0.16304347826086901</v>
@@ -17854,13 +17784,13 @@
         <v>1.1764705882352899E-2</v>
       </c>
       <c r="T27">
-        <v>0.54347826086956497</v>
+        <v>0.54255319148936099</v>
       </c>
       <c r="U27">
         <v>0.581395348837209</v>
       </c>
       <c r="V27">
-        <v>0.61363636363636298</v>
+        <v>0.61290322580645096</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -17874,7 +17804,7 @@
         <v>0.15217391304347799</v>
       </c>
       <c r="D28">
-        <v>0.17073170731707299</v>
+        <v>0.17204301075268799</v>
       </c>
       <c r="E28">
         <v>2.5000000000000001E-2</v>
@@ -17910,10 +17840,10 @@
         <v>0.16470588235294101</v>
       </c>
       <c r="P28">
-        <v>0.19191919191919099</v>
+        <v>0.19277108433734899</v>
       </c>
       <c r="Q28">
-        <v>1.0638297872340399E-2</v>
+        <v>1.0752688172042999E-2</v>
       </c>
       <c r="R28">
         <v>1.13636363636363E-2</v>
@@ -17922,10 +17852,10 @@
         <v>1.1904761904761901E-2</v>
       </c>
       <c r="T28">
-        <v>0.54081632653061196</v>
+        <v>0.54022988505747105</v>
       </c>
       <c r="U28">
-        <v>0.57894736842105199</v>
+        <v>0.57831325301204795</v>
       </c>
       <c r="V28">
         <v>0.61111111111111105</v>
@@ -17975,7 +17905,7 @@
         <v>0.146341463414634</v>
       </c>
       <c r="O29">
-        <v>0.164835164835164</v>
+        <v>0.164948453608247</v>
       </c>
       <c r="P29">
         <v>0.19354838709677399</v>
@@ -17987,16 +17917,16 @@
         <v>1.1494252873563199E-2</v>
       </c>
       <c r="S29">
-        <v>1.1904761904761901E-2</v>
+        <v>1.20481927710843E-2</v>
       </c>
       <c r="T29">
-        <v>0.53763440860214995</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="U29">
-        <v>0.57647058823529396</v>
+        <v>0.57575757575757502</v>
       </c>
       <c r="V29">
-        <v>0.60869565217391297</v>
+        <v>0.60824742268041199</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -18004,13 +17934,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B30">
-        <v>0.13131313131313099</v>
+        <v>0.13186813186813101</v>
       </c>
       <c r="C30">
         <v>0.15476190476190399</v>
       </c>
       <c r="D30">
-        <v>0.17391304347826</v>
+        <v>0.17441860465116199</v>
       </c>
       <c r="E30">
         <v>2.5000000000000001E-2</v>
@@ -18046,7 +17976,7 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="P30">
-        <v>0.19512195121951201</v>
+        <v>0.195402298850574</v>
       </c>
       <c r="Q30">
         <v>1.0869565217391301E-2</v>
@@ -18058,10 +17988,10 @@
         <v>1.20481927710843E-2</v>
       </c>
       <c r="T30">
-        <v>0.53488372093023195</v>
+        <v>0.53409090909090895</v>
       </c>
       <c r="U30">
-        <v>0.57317073170731703</v>
+        <v>0.57303370786516805</v>
       </c>
       <c r="V30">
         <v>0.60493827160493796</v>
@@ -18075,13 +18005,13 @@
         <v>0.132530120481927</v>
       </c>
       <c r="C31">
-        <v>0.155555555555555</v>
+        <v>0.15584415584415501</v>
       </c>
       <c r="D31">
-        <v>0.17499999999999999</v>
+        <v>0.17582417582417501</v>
       </c>
       <c r="E31">
-        <v>2.5000000000000001E-2</v>
+        <v>2.53164556962025E-2</v>
       </c>
       <c r="F31">
         <v>3.7974683544303799E-2</v>
@@ -18111,10 +18041,10 @@
         <v>0.148148148148148</v>
       </c>
       <c r="O31">
-        <v>0.16666666666666599</v>
+        <v>0.168421052631578</v>
       </c>
       <c r="P31">
-        <v>0.19565217391304299</v>
+        <v>0.19587628865979301</v>
       </c>
       <c r="Q31">
         <v>1.09890109890109E-2</v>
@@ -18126,10 +18056,10 @@
         <v>1.21951219512195E-2</v>
       </c>
       <c r="T31">
-        <v>0.530864197530864</v>
+        <v>0.53012048192771</v>
       </c>
       <c r="U31">
-        <v>0.56976744186046502</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="V31">
         <v>0.60240963855421603</v>
@@ -18176,16 +18106,16 @@
         <v>7.3170731707316999E-2</v>
       </c>
       <c r="N32">
-        <v>0.14942528735632099</v>
+        <v>0.15</v>
       </c>
       <c r="O32">
         <v>0.16867469879517999</v>
       </c>
       <c r="P32">
-        <v>0.19767441860465099</v>
+        <v>0.19780219780219699</v>
       </c>
       <c r="Q32">
-        <v>1.09890109890109E-2</v>
+        <v>1.1111111111111099E-2</v>
       </c>
       <c r="R32">
         <v>1.1764705882352899E-2</v>
@@ -18197,7 +18127,7 @@
         <v>0.52747252747252704</v>
       </c>
       <c r="U32">
-        <v>0.56790123456790098</v>
+        <v>0.56626506024096301</v>
       </c>
       <c r="V32">
         <v>0.6</v>
@@ -18214,7 +18144,7 @@
         <v>0.15853658536585299</v>
       </c>
       <c r="D33">
-        <v>0.17777777777777701</v>
+        <v>0.17857142857142799</v>
       </c>
       <c r="E33">
         <v>2.53164556962025E-2</v>
@@ -18223,7 +18153,7 @@
         <v>3.8461538461538401E-2</v>
       </c>
       <c r="G33">
-        <v>6.5934065934065894E-2</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -18241,10 +18171,10 @@
         <v>4.5977011494252797E-2</v>
       </c>
       <c r="M33">
-        <v>7.3170731707316999E-2</v>
+        <v>7.3684210526315699E-2</v>
       </c>
       <c r="N33">
-        <v>0.15053763440860199</v>
+        <v>0.15116279069767399</v>
       </c>
       <c r="O33">
         <v>0.170454545454545</v>
@@ -18256,7 +18186,7 @@
         <v>1.1111111111111099E-2</v>
       </c>
       <c r="R33">
-        <v>1.1764705882352899E-2</v>
+        <v>1.1904761904761901E-2</v>
       </c>
       <c r="S33">
         <v>1.23456790123456E-2</v>
@@ -18265,10 +18195,10 @@
         <v>0.52380952380952295</v>
       </c>
       <c r="U33">
-        <v>0.56410256410256399</v>
+        <v>0.56321839080459701</v>
       </c>
       <c r="V33">
-        <v>0.59756097560975596</v>
+        <v>0.59574468085106302</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -18276,13 +18206,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.135135135135135</v>
+        <v>0.13541666666666599</v>
       </c>
       <c r="C34">
-        <v>0.159574468085106</v>
+        <v>0.16049382716049301</v>
       </c>
       <c r="D34">
-        <v>0.17948717948717899</v>
+        <v>0.17977528089887601</v>
       </c>
       <c r="E34">
         <v>2.5641025641025599E-2</v>
@@ -18315,7 +18245,7 @@
         <v>0.151898734177215</v>
       </c>
       <c r="O34">
-        <v>0.17105263157894701</v>
+        <v>0.17204301075268799</v>
       </c>
       <c r="P34">
         <v>0.2</v>
@@ -18330,13 +18260,13 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="T34">
-        <v>0.52173913043478204</v>
+        <v>0.518987341772151</v>
       </c>
       <c r="U34">
-        <v>0.56043956043956</v>
+        <v>0.55952380952380898</v>
       </c>
       <c r="V34">
-        <v>0.59340659340659296</v>
+        <v>0.59302325581395299</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -18380,7 +18310,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N35">
-        <v>0.152941176470588</v>
+        <v>0.15384615384615299</v>
       </c>
       <c r="O35">
         <v>0.172839506172839</v>
@@ -18398,13 +18328,13 @@
         <v>1.26582278481012E-2</v>
       </c>
       <c r="T35">
-        <v>0.51764705882352902</v>
+        <v>0.51724137931034397</v>
       </c>
       <c r="U35">
-        <v>0.556962025316455</v>
+        <v>0.55681818181818099</v>
       </c>
       <c r="V35">
-        <v>0.59036144578313199</v>
+        <v>0.58974358974358898</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -18415,10 +18345,10 @@
         <v>0.13750000000000001</v>
       </c>
       <c r="C36">
-        <v>0.16250000000000001</v>
+        <v>0.16279069767441801</v>
       </c>
       <c r="D36">
-        <v>0.18292682926829201</v>
+        <v>0.18390804597701099</v>
       </c>
       <c r="E36">
         <v>2.5974025974025899E-2</v>
@@ -18451,7 +18381,7 @@
         <v>0.15476190476190399</v>
       </c>
       <c r="O36">
-        <v>0.17391304347826</v>
+        <v>0.17441860465116199</v>
       </c>
       <c r="P36">
         <v>0.204545454545454</v>
@@ -18463,16 +18393,16 @@
         <v>1.21951219512195E-2</v>
       </c>
       <c r="S36">
-        <v>1.26582278481012E-2</v>
+        <v>1.2820512820512799E-2</v>
       </c>
       <c r="T36">
-        <v>0.51249999999999996</v>
+        <v>0.51219512195121897</v>
       </c>
       <c r="U36">
-        <v>0.55294117647058805</v>
+        <v>0.55263157894736803</v>
       </c>
       <c r="V36">
-        <v>0.58695652173913004</v>
+        <v>0.58620689655172398</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -18480,7 +18410,7 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.13793103448275801</v>
+        <v>0.139240506329113</v>
       </c>
       <c r="C37">
         <v>0.164556962025316</v>
@@ -18507,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>3.5294117647058802E-2</v>
+        <v>3.5714285714285698E-2</v>
       </c>
       <c r="L37">
         <v>4.7619047619047603E-2</v>
@@ -18528,19 +18458,19 @@
         <v>1.1627906976744099E-2</v>
       </c>
       <c r="R37">
-        <v>1.21951219512195E-2</v>
+        <v>1.23456790123456E-2</v>
       </c>
       <c r="S37">
         <v>1.2820512820512799E-2</v>
       </c>
       <c r="T37">
-        <v>0.51136363636363602</v>
+        <v>0.50684931506849296</v>
       </c>
       <c r="U37">
-        <v>0.55000000000000004</v>
+        <v>0.54945054945054905</v>
       </c>
       <c r="V37">
-        <v>0.58426966292134797</v>
+        <v>0.58333333333333304</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -18551,13 +18481,13 @@
         <v>0.13953488372093001</v>
       </c>
       <c r="C38">
-        <v>0.16470588235294101</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="D38">
         <v>0.18666666666666601</v>
       </c>
       <c r="E38">
-        <v>2.5974025974025899E-2</v>
+        <v>2.6315789473684199E-2</v>
       </c>
       <c r="F38">
         <v>0.04</v>
@@ -18581,10 +18511,10 @@
         <v>4.8192771084337303E-2</v>
       </c>
       <c r="M38">
-        <v>7.69230769230769E-2</v>
+        <v>7.7777777777777696E-2</v>
       </c>
       <c r="N38">
-        <v>0.156626506024096</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="O38">
         <v>0.177215189873417</v>
@@ -18593,22 +18523,22 @@
         <v>0.207317073170731</v>
       </c>
       <c r="Q38">
-        <v>1.1627906976744099E-2</v>
+        <v>1.1764705882352899E-2</v>
       </c>
       <c r="R38">
-        <v>1.23456790123456E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="S38">
         <v>1.2987012987012899E-2</v>
       </c>
       <c r="T38">
-        <v>0.50617283950617198</v>
+        <v>0.50588235294117601</v>
       </c>
       <c r="U38">
         <v>0.54545454545454497</v>
       </c>
       <c r="V38">
-        <v>0.58024691358024605</v>
+        <v>0.57894736842105199</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -18622,7 +18552,7 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="D39">
-        <v>0.188235294117647</v>
+        <v>0.18918918918918901</v>
       </c>
       <c r="E39">
         <v>2.6315789473684199E-2</v>
@@ -18661,7 +18591,7 @@
         <v>0.209302325581395</v>
       </c>
       <c r="Q39">
-        <v>1.1764705882352899E-2</v>
+        <v>1.1904761904761901E-2</v>
       </c>
       <c r="R39">
         <v>1.2500000000000001E-2</v>
@@ -18673,10 +18603,10 @@
         <v>0.5</v>
       </c>
       <c r="U39">
-        <v>0.54166666666666596</v>
+        <v>0.54054054054054002</v>
       </c>
       <c r="V39">
-        <v>0.57647058823529396</v>
+        <v>0.57534246575342396</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -18684,13 +18614,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.14117647058823499</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="C40">
-        <v>0.16867469879517999</v>
+        <v>0.168831168831168</v>
       </c>
       <c r="D40">
-        <v>0.18918918918918901</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="E40">
         <v>2.6666666666666599E-2</v>
@@ -18714,19 +18644,19 @@
         <v>3.65853658536585E-2</v>
       </c>
       <c r="L40">
-        <v>4.8780487804878002E-2</v>
+        <v>4.9382716049382699E-2</v>
       </c>
       <c r="M40">
         <v>7.8947368421052599E-2</v>
       </c>
       <c r="N40">
-        <v>0.16</v>
+        <v>0.16049382716049301</v>
       </c>
       <c r="O40">
-        <v>0.17977528089887601</v>
+        <v>0.180555555555555</v>
       </c>
       <c r="P40">
-        <v>0.21052631578947301</v>
+        <v>0.211111111111111</v>
       </c>
       <c r="Q40">
         <v>1.1904761904761901E-2</v>
@@ -18738,13 +18668,13 @@
         <v>1.3333333333333299E-2</v>
       </c>
       <c r="T40">
-        <v>0.5</v>
+        <v>0.49450549450549403</v>
       </c>
       <c r="U40">
-        <v>0.53846153846153799</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="V40">
-        <v>0.57317073170731703</v>
+        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -18764,7 +18694,7 @@
         <v>2.6666666666666599E-2</v>
       </c>
       <c r="F41">
-        <v>4.0540540540540501E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="G41">
         <v>6.6666666666666596E-2</v>
@@ -18782,13 +18712,13 @@
         <v>3.7037037037037E-2</v>
       </c>
       <c r="L41">
-        <v>4.9382716049382699E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M41">
-        <v>7.9545454545454503E-2</v>
+        <v>0.08</v>
       </c>
       <c r="N41">
-        <v>0.160919540229885</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="O41">
         <v>0.18181818181818099</v>
@@ -18803,16 +18733,16 @@
         <v>1.2820512820512799E-2</v>
       </c>
       <c r="S41">
-        <v>1.3333333333333299E-2</v>
+        <v>1.35135135135135E-2</v>
       </c>
       <c r="T41">
-        <v>0.493506493506493</v>
+        <v>0.49333333333333301</v>
       </c>
       <c r="U41">
-        <v>0.534246575342465</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="V41">
-        <v>0.56944444444444398</v>
+        <v>0.56756756756756699</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -18823,7 +18753,7 @@
         <v>0.14457831325301199</v>
       </c>
       <c r="C42">
-        <v>0.17105263157894701</v>
+        <v>0.17142857142857101</v>
       </c>
       <c r="D42">
         <v>0.194444444444444</v>
@@ -18850,19 +18780,19 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="L42">
-        <v>0.05</v>
+        <v>5.0632911392405E-2</v>
       </c>
       <c r="M42">
-        <v>8.04597701149425E-2</v>
+        <v>8.1081081081081002E-2</v>
       </c>
       <c r="N42">
-        <v>0.16250000000000001</v>
+        <v>0.16279069767441801</v>
       </c>
       <c r="O42">
-        <v>0.183098591549295</v>
+        <v>0.18390804597701099</v>
       </c>
       <c r="P42">
-        <v>0.214285714285714</v>
+        <v>0.215189873417721</v>
       </c>
       <c r="Q42">
         <v>1.21951219512195E-2</v>
@@ -18871,16 +18801,16 @@
         <v>1.2987012987012899E-2</v>
       </c>
       <c r="S42">
-        <v>1.35135135135135E-2</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="T42">
-        <v>0.48780487804877998</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="U42">
-        <v>0.53012048192771</v>
+        <v>0.52857142857142803</v>
       </c>
       <c r="V42">
-        <v>0.56470588235294095</v>
+        <v>0.56338028169013998</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -18888,13 +18818,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.14492753623188401</v>
+        <v>0.146341463414634</v>
       </c>
       <c r="C43">
         <v>0.17333333333333301</v>
       </c>
       <c r="D43">
-        <v>0.19480519480519401</v>
+        <v>0.19512195121951201</v>
       </c>
       <c r="E43">
         <v>2.7027027027027001E-2</v>
@@ -18921,16 +18851,16 @@
         <v>5.0632911392405E-2</v>
       </c>
       <c r="M43">
-        <v>8.1395348837209294E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="N43">
-        <v>0.164383561643835</v>
+        <v>0.164556962025316</v>
       </c>
       <c r="O43">
-        <v>0.18518518518518501</v>
+        <v>0.185714285714285</v>
       </c>
       <c r="P43">
-        <v>0.21621621621621601</v>
+        <v>0.21686746987951799</v>
       </c>
       <c r="Q43">
         <v>1.23456790123456E-2</v>
@@ -18942,13 +18872,13 @@
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="T43">
-        <v>0.48611111111111099</v>
+        <v>0.48275862068965503</v>
       </c>
       <c r="U43">
-        <v>0.52631578947368396</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="V43">
-        <v>0.56097560975609695</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -18962,7 +18892,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="D44">
-        <v>0.19718309859154901</v>
+        <v>0.197368421052631</v>
       </c>
       <c r="E44">
         <v>2.7397260273972601E-2</v>
@@ -18989,34 +18919,34 @@
         <v>5.1282051282051197E-2</v>
       </c>
       <c r="M44">
-        <v>8.2352941176470504E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="N44">
         <v>0.16666666666666599</v>
       </c>
       <c r="O44">
-        <v>0.18666666666666601</v>
+        <v>0.1875</v>
       </c>
       <c r="P44">
-        <v>0.21839080459770099</v>
+        <v>0.21917808219178</v>
       </c>
       <c r="Q44">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="R44">
-        <v>1.3157894736842099E-2</v>
+        <v>1.3333333333333299E-2</v>
       </c>
       <c r="S44">
         <v>1.38888888888888E-2</v>
       </c>
       <c r="T44">
-        <v>0.48</v>
+        <v>0.47945205479452002</v>
       </c>
       <c r="U44">
-        <v>0.52112676056338003</v>
+        <v>0.52054794520547898</v>
       </c>
       <c r="V44">
-        <v>0.556962025316455</v>
+        <v>0.55555555555555503</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -19024,10 +18954,10 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.148148148148148</v>
+        <v>0.14864864864864799</v>
       </c>
       <c r="C45">
-        <v>0.17647058823529399</v>
+        <v>0.177215189873417</v>
       </c>
       <c r="D45">
         <v>0.2</v>
@@ -19060,10 +18990,10 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="N45">
-        <v>0.16666666666666599</v>
+        <v>0.168831168831168</v>
       </c>
       <c r="O45">
-        <v>0.188405797101449</v>
+        <v>0.18918918918918901</v>
       </c>
       <c r="P45">
         <v>0.22077922077921999</v>
@@ -19072,19 +19002,19 @@
         <v>1.26582278481012E-2</v>
       </c>
       <c r="R45">
-        <v>1.3333333333333299E-2</v>
+        <v>1.35135135135135E-2</v>
       </c>
       <c r="S45">
         <v>1.4084507042253501E-2</v>
       </c>
       <c r="T45">
-        <v>0.47435897435897401</v>
+        <v>0.47368421052631499</v>
       </c>
       <c r="U45">
-        <v>0.51764705882352902</v>
+        <v>0.51428571428571401</v>
       </c>
       <c r="V45">
-        <v>0.55263157894736803</v>
+        <v>0.55128205128205099</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -19092,13 +19022,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.14925373134328301</v>
+        <v>0.15</v>
       </c>
       <c r="C46">
         <v>0.17808219178082099</v>
       </c>
       <c r="D46">
-        <v>0.20253164556962</v>
+        <v>0.20270270270270199</v>
       </c>
       <c r="E46">
         <v>2.77777777777777E-2</v>
@@ -19134,25 +19064,25 @@
         <v>0.191176470588235</v>
       </c>
       <c r="P46">
-        <v>0.22222222222222199</v>
+        <v>0.22368421052631501</v>
       </c>
       <c r="Q46">
         <v>1.2820512820512799E-2</v>
       </c>
       <c r="R46">
-        <v>1.35135135135135E-2</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="S46">
         <v>1.42857142857142E-2</v>
       </c>
       <c r="T46">
-        <v>0.469879518072289</v>
+        <v>0.46875</v>
       </c>
       <c r="U46">
-        <v>0.51351351351351304</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="V46">
-        <v>0.54794520547945202</v>
+        <v>0.54666666666666597</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -19163,10 +19093,10 @@
         <v>0.150684931506849</v>
       </c>
       <c r="C47">
-        <v>0.17948717948717899</v>
+        <v>0.180555555555555</v>
       </c>
       <c r="D47">
-        <v>0.202898550724637</v>
+        <v>0.20512820512820501</v>
       </c>
       <c r="E47">
         <v>2.77777777777777E-2</v>
@@ -19199,7 +19129,7 @@
         <v>0.17142857142857101</v>
       </c>
       <c r="O47">
-        <v>0.19230769230769201</v>
+        <v>0.194029850746268</v>
       </c>
       <c r="P47">
         <v>0.22535211267605601</v>
@@ -19208,19 +19138,19 @@
         <v>1.2987012987012899E-2</v>
       </c>
       <c r="R47">
-        <v>1.3698630136986301E-2</v>
+        <v>1.38888888888888E-2</v>
       </c>
       <c r="S47">
         <v>1.4492753623188401E-2</v>
       </c>
       <c r="T47">
-        <v>0.465753424657534</v>
+        <v>0.46376811594202899</v>
       </c>
       <c r="U47">
-        <v>0.50704225352112597</v>
+        <v>0.50684931506849296</v>
       </c>
       <c r="V47">
-        <v>0.54285714285714204</v>
+        <v>0.54216867469879504</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -19255,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0.04</v>
+        <v>4.0540540540540501E-2</v>
       </c>
       <c r="L48">
         <v>5.4054054054054002E-2</v>
@@ -19264,13 +19194,13 @@
         <v>8.6956521739130405E-2</v>
       </c>
       <c r="N48">
-        <v>0.17333333333333301</v>
+        <v>0.17391304347826</v>
       </c>
       <c r="O48">
         <v>0.194444444444444</v>
       </c>
       <c r="P48">
-        <v>0.22727272727272699</v>
+        <v>0.22857142857142801</v>
       </c>
       <c r="Q48">
         <v>1.3157894736842099E-2</v>
@@ -19282,13 +19212,13 @@
         <v>1.47058823529411E-2</v>
       </c>
       <c r="T48">
-        <v>0.46052631578947301</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="U48">
         <v>0.5</v>
       </c>
       <c r="V48">
-        <v>0.53846153846153799</v>
+        <v>0.53731343283582</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -19296,19 +19226,19 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.15277777777777701</v>
+        <v>0.15384615384615299</v>
       </c>
       <c r="C49">
         <v>0.18421052631578899</v>
       </c>
       <c r="D49">
-        <v>0.20833333333333301</v>
+        <v>0.20895522388059701</v>
       </c>
       <c r="E49">
         <v>2.8169014084507001E-2</v>
       </c>
       <c r="F49">
-        <v>4.3478260869565202E-2</v>
+        <v>4.4117647058823498E-2</v>
       </c>
       <c r="G49">
         <v>6.7567567567567502E-2</v>
@@ -19323,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>4.0540540540540501E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="L49">
         <v>5.4794520547945202E-2</v>
@@ -19332,13 +19262,13 @@
         <v>8.8235294117646995E-2</v>
       </c>
       <c r="N49">
-        <v>0.17460317460317401</v>
+        <v>0.17567567567567499</v>
       </c>
       <c r="O49">
-        <v>0.19696969696969599</v>
+        <v>0.19718309859154901</v>
       </c>
       <c r="P49">
-        <v>0.22972972972972899</v>
+        <v>0.23076923076923</v>
       </c>
       <c r="Q49">
         <v>1.3333333333333299E-2</v>
@@ -19347,16 +19277,16 @@
         <v>1.4084507042253501E-2</v>
       </c>
       <c r="S49">
-        <v>1.47058823529411E-2</v>
+        <v>1.4925373134328301E-2</v>
       </c>
       <c r="T49">
-        <v>0.455696202531645</v>
+        <v>0.45333333333333298</v>
       </c>
       <c r="U49">
-        <v>0.5</v>
+        <v>0.493670886075949</v>
       </c>
       <c r="V49">
-        <v>0.534246575342465</v>
+        <v>0.53333333333333299</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
@@ -19370,7 +19300,7 @@
         <v>0.185714285714285</v>
       </c>
       <c r="D50">
-        <v>0.21052631578947301</v>
+        <v>0.21126760563380201</v>
       </c>
       <c r="E50">
         <v>2.8571428571428501E-2</v>
@@ -19400,10 +19330,10 @@
         <v>8.9552238805970102E-2</v>
       </c>
       <c r="N50">
-        <v>0.17647058823529399</v>
+        <v>0.17741935483870899</v>
       </c>
       <c r="O50">
-        <v>0.19753086419752999</v>
+        <v>0.2</v>
       </c>
       <c r="P50">
         <v>0.232876712328767</v>
@@ -19415,16 +19345,16 @@
         <v>1.42857142857142E-2</v>
       </c>
       <c r="S50">
-        <v>1.4925373134328301E-2</v>
+        <v>1.51515151515151E-2</v>
       </c>
       <c r="T50">
-        <v>0.45070422535211202</v>
+        <v>0.44776119402984998</v>
       </c>
       <c r="U50">
-        <v>0.49253731343283502</v>
+        <v>0.492307692307692</v>
       </c>
       <c r="V50">
-        <v>0.52941176470588203</v>
+        <v>0.52857142857142803</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
@@ -19432,10 +19362,10 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.15584415584415501</v>
+        <v>0.15625</v>
       </c>
       <c r="C51">
-        <v>0.1875</v>
+        <v>0.188405797101449</v>
       </c>
       <c r="D51">
         <v>0.21212121212121199</v>
@@ -19459,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>4.1666666666666602E-2</v>
+        <v>4.22535211267605E-2</v>
       </c>
       <c r="L51">
         <v>5.6338028169014003E-2</v>
@@ -19483,16 +19413,16 @@
         <v>1.4492753623188401E-2</v>
       </c>
       <c r="S51">
-        <v>1.51515151515151E-2</v>
+        <v>1.53846153846153E-2</v>
       </c>
       <c r="T51">
-        <v>0.44444444444444398</v>
+        <v>0.44285714285714201</v>
       </c>
       <c r="U51">
-        <v>0.48611111111111099</v>
+        <v>0.48529411764705799</v>
       </c>
       <c r="V51">
-        <v>0.52380952380952295</v>
+        <v>0.52238805970149205</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -19500,10 +19430,10 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.157142857142857</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="C52">
-        <v>0.18918918918918901</v>
+        <v>0.19047619047618999</v>
       </c>
       <c r="D52">
         <v>0.21538461538461501</v>
@@ -19542,25 +19472,25 @@
         <v>0.203125</v>
       </c>
       <c r="P52">
-        <v>0.238095238095238</v>
+        <v>0.23880597014925301</v>
       </c>
       <c r="Q52">
-        <v>1.38888888888888E-2</v>
+        <v>1.4084507042253501E-2</v>
       </c>
       <c r="R52">
-        <v>1.47058823529411E-2</v>
+        <v>1.4925373134328301E-2</v>
       </c>
       <c r="S52">
-        <v>1.53846153846153E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="T52">
-        <v>0.4375</v>
+        <v>0.43548387096774099</v>
       </c>
       <c r="U52">
-        <v>0.48</v>
+        <v>0.47826086956521702</v>
       </c>
       <c r="V52">
-        <v>0.52</v>
+        <v>0.515625</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -19571,10 +19501,10 @@
         <v>0.158730158730158</v>
       </c>
       <c r="C53">
-        <v>0.191176470588235</v>
+        <v>0.19178082191780799</v>
       </c>
       <c r="D53">
-        <v>0.21666666666666601</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="E53">
         <v>2.8985507246376802E-2</v>
@@ -19604,31 +19534,31 @@
         <v>9.375E-2</v>
       </c>
       <c r="N53">
-        <v>0.183098591549295</v>
+        <v>0.18421052631578899</v>
       </c>
       <c r="O53">
         <v>0.20588235294117599</v>
       </c>
       <c r="P53">
-        <v>0.23943661971830901</v>
+        <v>0.241935483870967</v>
       </c>
       <c r="Q53">
-        <v>1.4084507042253501E-2</v>
+        <v>1.42857142857142E-2</v>
       </c>
       <c r="R53">
-        <v>1.4925373134328301E-2</v>
+        <v>1.51515151515151E-2</v>
       </c>
       <c r="S53">
-        <v>1.5625E-2</v>
+        <v>1.5873015873015799E-2</v>
       </c>
       <c r="T53">
-        <v>0.43333333333333302</v>
+        <v>0.43076923076923002</v>
       </c>
       <c r="U53">
-        <v>0.47692307692307601</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="V53">
-        <v>0.51515151515151503</v>
+        <v>0.51428571428571401</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -19636,16 +19566,16 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.15942028985507201</v>
+        <v>0.16</v>
       </c>
       <c r="C54">
-        <v>0.19354838709677399</v>
+        <v>0.194029850746268</v>
       </c>
       <c r="D54">
-        <v>0.21875</v>
+        <v>0.22033898305084701</v>
       </c>
       <c r="E54">
-        <v>2.8985507246376802E-2</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="F54">
         <v>4.54545454545454E-2</v>
@@ -19672,31 +19602,31 @@
         <v>9.5238095238095205E-2</v>
       </c>
       <c r="N54">
-        <v>0.18461538461538399</v>
+        <v>0.186440677966101</v>
       </c>
       <c r="O54">
-        <v>0.206349206349206</v>
+        <v>0.20833333333333301</v>
       </c>
       <c r="P54">
-        <v>0.24242424242424199</v>
+        <v>0.24285714285714199</v>
       </c>
       <c r="Q54">
-        <v>1.42857142857142E-2</v>
+        <v>1.4492753623188401E-2</v>
       </c>
       <c r="R54">
-        <v>1.51515151515151E-2</v>
+        <v>1.53846153846153E-2</v>
       </c>
       <c r="S54">
-        <v>1.5873015873015799E-2</v>
+        <v>1.6129032258064498E-2</v>
       </c>
       <c r="T54">
-        <v>0.42857142857142799</v>
+        <v>0.42622950819672101</v>
       </c>
       <c r="U54">
-        <v>0.47058823529411697</v>
+        <v>0.46875</v>
       </c>
       <c r="V54">
-        <v>0.50793650793650702</v>
+        <v>0.507692307692307</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -19707,10 +19637,10 @@
         <v>0.16129032258064499</v>
       </c>
       <c r="C55">
-        <v>0.194029850746268</v>
+        <v>0.196721311475409</v>
       </c>
       <c r="D55">
-        <v>0.220588235294117</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="E55">
         <v>2.94117647058823E-2</v>
@@ -19719,7 +19649,7 @@
         <v>4.6153846153846101E-2</v>
       </c>
       <c r="G55">
-        <v>6.6666666666666596E-2</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -19740,31 +19670,31 @@
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="N55">
-        <v>0.1875</v>
+        <v>0.188405797101449</v>
       </c>
       <c r="O55">
-        <v>0.209677419354838</v>
+        <v>0.21052631578947301</v>
       </c>
       <c r="P55">
-        <v>0.24590163934426201</v>
+        <v>0.246153846153846</v>
       </c>
       <c r="Q55">
-        <v>1.4492753623188401E-2</v>
+        <v>1.47058823529411E-2</v>
       </c>
       <c r="R55">
-        <v>1.53846153846153E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="S55">
-        <v>1.6129032258064498E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="T55">
-        <v>0.421875</v>
+        <v>0.42028985507246303</v>
       </c>
       <c r="U55">
-        <v>0.46666666666666601</v>
+        <v>0.46376811594202899</v>
       </c>
       <c r="V55">
-        <v>0.50684931506849296</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -19775,10 +19705,10 @@
         <v>0.16176470588235201</v>
       </c>
       <c r="C56">
-        <v>0.196721311475409</v>
+        <v>0.19696969696969599</v>
       </c>
       <c r="D56">
-        <v>0.22388059701492499</v>
+        <v>0.22413793103448201</v>
       </c>
       <c r="E56">
         <v>2.94117647058823E-2</v>
@@ -19808,7 +19738,7 @@
         <v>9.8360655737704902E-2</v>
       </c>
       <c r="N56">
-        <v>0.18965517241379301</v>
+        <v>0.19047619047618999</v>
       </c>
       <c r="O56">
         <v>0.21311475409836</v>
@@ -19817,19 +19747,19 @@
         <v>0.25</v>
       </c>
       <c r="Q56">
-        <v>1.47058823529411E-2</v>
+        <v>1.4925373134328301E-2</v>
       </c>
       <c r="R56">
-        <v>1.5625E-2</v>
+        <v>1.5873015873015799E-2</v>
       </c>
       <c r="S56">
-        <v>1.63934426229508E-2</v>
+        <v>1.6666666666666601E-2</v>
       </c>
       <c r="T56">
-        <v>0.41666666666666602</v>
+        <v>0.41428571428571398</v>
       </c>
       <c r="U56">
-        <v>0.45901639344262202</v>
+        <v>0.45762711864406702</v>
       </c>
       <c r="V56">
         <v>0.5</v>
@@ -19846,7 +19776,7 @@
         <v>0.2</v>
       </c>
       <c r="D57">
-        <v>0.225806451612903</v>
+        <v>0.22727272727272699</v>
       </c>
       <c r="E57">
         <v>2.9850746268656699E-2</v>
@@ -19870,37 +19800,37 @@
         <v>4.6153846153846101E-2</v>
       </c>
       <c r="L57">
-        <v>6.15384615384615E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M57">
         <v>0.1</v>
       </c>
       <c r="N57">
-        <v>0.19298245614035001</v>
+        <v>0.19354838709677399</v>
       </c>
       <c r="O57">
-        <v>0.21538461538461501</v>
+        <v>0.21666666666666601</v>
       </c>
       <c r="P57">
-        <v>0.25</v>
+        <v>0.25373134328358199</v>
       </c>
       <c r="Q57">
         <v>1.51515151515151E-2</v>
       </c>
       <c r="R57">
-        <v>1.5873015873015799E-2</v>
+        <v>1.6129032258064498E-2</v>
       </c>
       <c r="S57">
-        <v>1.6666666666666601E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="T57">
-        <v>0.40983606557377</v>
+        <v>0.40677966101694901</v>
       </c>
       <c r="U57">
-        <v>0.45333333333333298</v>
+        <v>0.45161290322580599</v>
       </c>
       <c r="V57">
-        <v>0.492307692307692</v>
+        <v>0.49180327868852403</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -19914,7 +19844,7 @@
         <v>0.2</v>
       </c>
       <c r="D58">
-        <v>0.22807017543859601</v>
+        <v>0.22950819672131101</v>
       </c>
       <c r="E58">
         <v>2.9850746268656699E-2</v>
@@ -19938,37 +19868,37 @@
         <v>4.6875E-2</v>
       </c>
       <c r="L58">
-        <v>6.25E-2</v>
+        <v>6.3492063492063405E-2</v>
       </c>
       <c r="M58">
         <v>0.101694915254237</v>
       </c>
       <c r="N58">
-        <v>0.194029850746268</v>
+        <v>0.19642857142857101</v>
       </c>
       <c r="O58">
-        <v>0.217391304347826</v>
+        <v>0.21875</v>
       </c>
       <c r="P58">
-        <v>0.25423728813559299</v>
+        <v>0.25454545454545402</v>
       </c>
       <c r="Q58">
         <v>1.53846153846153E-2</v>
       </c>
       <c r="R58">
-        <v>1.6129032258064498E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="S58">
-        <v>1.6949152542372801E-2</v>
+        <v>1.72413793103448E-2</v>
       </c>
       <c r="T58">
-        <v>0.40322580645161199</v>
+        <v>0.4</v>
       </c>
       <c r="U58">
-        <v>0.44827586206896503</v>
+        <v>0.44615384615384601</v>
       </c>
       <c r="V58">
-        <v>0.48529411764705799</v>
+        <v>0.484375</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -19979,10 +19909,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="C59">
-        <v>0.203125</v>
+        <v>0.20338983050847401</v>
       </c>
       <c r="D59">
-        <v>0.23076923076923</v>
+        <v>0.23214285714285701</v>
       </c>
       <c r="E59">
         <v>2.9850746268656699E-2</v>
@@ -20006,19 +19936,19 @@
         <v>4.7619047619047603E-2</v>
       </c>
       <c r="L59">
-        <v>6.3492063492063405E-2</v>
+        <v>6.4516129032257993E-2</v>
       </c>
       <c r="M59">
         <v>0.10344827586206801</v>
       </c>
       <c r="N59">
-        <v>0.196721311475409</v>
+        <v>0.19696969696969599</v>
       </c>
       <c r="O59">
-        <v>0.22033898305084701</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="P59">
-        <v>0.25806451612903197</v>
+        <v>0.25862068965517199</v>
       </c>
       <c r="Q59">
         <v>1.5625E-2</v>
@@ -20027,16 +19957,16 @@
         <v>1.6666666666666601E-2</v>
       </c>
       <c r="S59">
-        <v>1.72413793103448E-2</v>
+        <v>1.7543859649122799E-2</v>
       </c>
       <c r="T59">
-        <v>0.39682539682539603</v>
+        <v>0.39393939393939298</v>
       </c>
       <c r="U59">
-        <v>0.44067796610169402</v>
+        <v>0.43859649122806998</v>
       </c>
       <c r="V59">
-        <v>0.48275862068965503</v>
+        <v>0.48148148148148101</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -20047,13 +19977,13 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="C60">
-        <v>0.20338983050847401</v>
+        <v>0.20588235294117599</v>
       </c>
       <c r="D60">
-        <v>0.233333333333333</v>
+        <v>0.234375</v>
       </c>
       <c r="E60">
-        <v>2.8985507246376802E-2</v>
+        <v>1.9230769230769201E-2</v>
       </c>
       <c r="F60">
         <v>4.6875E-2</v>
@@ -20071,40 +20001,40 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>4.8387096774193498E-2</v>
+        <v>4.9180327868852403E-2</v>
       </c>
       <c r="L60">
-        <v>6.4516129032257993E-2</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="M60">
-        <v>0.105263157894736</v>
+        <v>0.10606060606060599</v>
       </c>
       <c r="N60">
         <v>0.2</v>
       </c>
       <c r="O60">
-        <v>0.22388059701492499</v>
+        <v>0.22413793103448201</v>
       </c>
       <c r="P60">
-        <v>0.26229508196721302</v>
+        <v>0.26315789473684198</v>
       </c>
       <c r="Q60">
-        <v>1.5873015873015799E-2</v>
+        <v>1.6129032258064498E-2</v>
       </c>
       <c r="R60">
         <v>1.6949152542372801E-2</v>
       </c>
       <c r="S60">
-        <v>1.7543859649122799E-2</v>
+        <v>1.7857142857142801E-2</v>
       </c>
       <c r="T60">
-        <v>0.390625</v>
+        <v>0.38805970149253699</v>
       </c>
       <c r="U60">
-        <v>0.43548387096774099</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="V60">
-        <v>0.47540983606557302</v>
+        <v>0.47368421052631499</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -20115,7 +20045,7 @@
         <v>0.16923076923076899</v>
       </c>
       <c r="C61">
-        <v>0.206349206349206</v>
+        <v>0.20689655172413701</v>
       </c>
       <c r="D61">
         <v>0.236363636363636</v>
@@ -20124,7 +20054,7 @@
         <v>1.8867924528301799E-2</v>
       </c>
       <c r="F61">
-        <v>4.6875E-2</v>
+        <v>4.6153846153846101E-2</v>
       </c>
       <c r="G61">
         <v>6.7796610169491497E-2</v>
@@ -20139,40 +20069,40 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>4.9180327868852403E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L61">
         <v>6.6666666666666596E-2</v>
       </c>
       <c r="M61">
-        <v>0.107142857142857</v>
+        <v>0.107692307692307</v>
       </c>
       <c r="N61">
         <v>0.20338983050847401</v>
       </c>
       <c r="O61">
-        <v>0.22641509433962201</v>
+        <v>0.22807017543859601</v>
       </c>
       <c r="P61">
-        <v>0.265306122448979</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="Q61">
-        <v>1.6129032258064498E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="R61">
         <v>1.72413793103448E-2</v>
       </c>
       <c r="S61">
-        <v>1.7857142857142801E-2</v>
+        <v>1.8181818181818101E-2</v>
       </c>
       <c r="T61">
-        <v>0.38333333333333303</v>
+        <v>0.38095238095237999</v>
       </c>
       <c r="U61">
-        <v>0.42857142857142799</v>
+        <v>0.42622950819672101</v>
       </c>
       <c r="V61">
-        <v>0.469696969696969</v>
+        <v>0.46666666666666601</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -20183,16 +20113,16 @@
         <v>0.169491525423728</v>
       </c>
       <c r="C62">
-        <v>0.20754716981131999</v>
+        <v>0.20895522388059701</v>
       </c>
       <c r="D62">
-        <v>0.23728813559322001</v>
+        <v>0.23880597014925301</v>
       </c>
       <c r="E62">
         <v>1.9230769230769201E-2</v>
       </c>
       <c r="F62">
-        <v>4.4776119402985003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G62">
         <v>6.7796610169491497E-2</v>
@@ -20213,16 +20143,16 @@
         <v>6.7796610169491497E-2</v>
       </c>
       <c r="M62">
-        <v>0.109375</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="N62">
-        <v>0.203703703703703</v>
+        <v>0.20689655172413701</v>
       </c>
       <c r="O62">
-        <v>0.22950819672131101</v>
+        <v>0.23076923076923</v>
       </c>
       <c r="P62">
-        <v>0.26785714285714202</v>
+        <v>0.26984126984126899</v>
       </c>
       <c r="Q62">
         <v>1.6666666666666601E-2</v>
@@ -20234,13 +20164,13 @@
         <v>1.85185185185185E-2</v>
       </c>
       <c r="T62">
-        <v>0.37704918032786799</v>
+        <v>0.375</v>
       </c>
       <c r="U62">
-        <v>0.42307692307692302</v>
+        <v>0.41935483870967699</v>
       </c>
       <c r="V62">
-        <v>0.46296296296296202</v>
+        <v>0.46153846153846101</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
@@ -20281,16 +20211,16 @@
         <v>6.8965517241379296E-2</v>
       </c>
       <c r="M63">
-        <v>0.11111111111111099</v>
+        <v>0.113207547169811</v>
       </c>
       <c r="N63">
         <v>0.20754716981131999</v>
       </c>
       <c r="O63">
-        <v>0.23214285714285701</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="P63">
-        <v>0.27272727272727199</v>
+        <v>0.27419354838709598</v>
       </c>
       <c r="Q63">
         <v>1.6949152542372801E-2</v>
@@ -20302,13 +20232,13 @@
         <v>1.8867924528301799E-2</v>
       </c>
       <c r="T63">
-        <v>0.37037037037037002</v>
+        <v>0.36734693877551</v>
       </c>
       <c r="U63">
-        <v>0.41509433962264097</v>
+        <v>0.41379310344827502</v>
       </c>
       <c r="V63">
-        <v>0.45614035087719201</v>
+        <v>0.45454545454545398</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -20316,13 +20246,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.169811320754716</v>
+        <v>0.17241379310344801</v>
       </c>
       <c r="C64">
         <v>0.21153846153846101</v>
       </c>
       <c r="D64">
-        <v>0.24137931034482701</v>
+        <v>0.24489795918367299</v>
       </c>
       <c r="E64">
         <v>1.9607843137254902E-2</v>
@@ -20346,10 +20276,10 @@
         <v>5.2631578947368397E-2</v>
       </c>
       <c r="L64">
-        <v>7.0175438596491196E-2</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="M64">
-        <v>0.114754098360655</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="N64">
         <v>0.21153846153846101</v>
@@ -20358,25 +20288,25 @@
         <v>0.236363636363636</v>
       </c>
       <c r="P64">
-        <v>0.27586206896551702</v>
+        <v>0.27777777777777701</v>
       </c>
       <c r="Q64">
         <v>1.72413793103448E-2</v>
       </c>
       <c r="R64">
-        <v>1.8181818181818101E-2</v>
+        <v>1.85185185185185E-2</v>
       </c>
       <c r="S64">
         <v>1.9230769230769201E-2</v>
       </c>
       <c r="T64">
-        <v>0.36363636363636298</v>
+        <v>0.36</v>
       </c>
       <c r="U64">
-        <v>0.40983606557377</v>
+        <v>0.407407407407407</v>
       </c>
       <c r="V64">
-        <v>0.45098039215686198</v>
+        <v>0.44827586206896503</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -20393,7 +20323,7 @@
         <v>0.245283018867924</v>
       </c>
       <c r="E65">
-        <v>1.9607843137254902E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F65">
         <v>0.04</v>
@@ -20411,40 +20341,40 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>5.3571428571428499E-2</v>
+        <v>5.4545454545454501E-2</v>
       </c>
       <c r="L65">
-        <v>7.1428571428571397E-2</v>
+        <v>7.2727272727272696E-2</v>
       </c>
       <c r="M65">
-        <v>0.116666666666666</v>
+        <v>0.11764705882352899</v>
       </c>
       <c r="N65">
-        <v>0.214285714285714</v>
+        <v>0.21568627450980299</v>
       </c>
       <c r="O65">
-        <v>0.24</v>
+        <v>0.24074074074074001</v>
       </c>
       <c r="P65">
         <v>0.28000000000000003</v>
       </c>
       <c r="Q65">
-        <v>1.7543859649122799E-2</v>
+        <v>1.7857142857142801E-2</v>
       </c>
       <c r="R65">
-        <v>1.85185185185185E-2</v>
+        <v>1.8867924528301799E-2</v>
       </c>
       <c r="S65">
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="T65">
-        <v>0.35593220338983</v>
+        <v>0.35294117647058798</v>
       </c>
       <c r="U65">
-        <v>0.40350877192982398</v>
+        <v>0.4</v>
       </c>
       <c r="V65">
-        <v>0.44262295081967201</v>
+        <v>0.44230769230769201</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
@@ -20452,13 +20382,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.17241379310344801</v>
+        <v>0.17307692307692299</v>
       </c>
       <c r="C66">
         <v>0.21568627450980299</v>
       </c>
       <c r="D66">
-        <v>0.24561403508771901</v>
+        <v>0.25</v>
       </c>
       <c r="E66">
         <v>0.02</v>
@@ -20467,7 +20397,7 @@
         <v>4.08163265306122E-2</v>
       </c>
       <c r="G66">
-        <v>6.6666666666666596E-2</v>
+        <v>6.5217391304347797E-2</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -20479,7 +20409,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>5.4545454545454501E-2</v>
+        <v>5.5555555555555497E-2</v>
       </c>
       <c r="L66">
         <v>7.4074074074074001E-2</v>
@@ -20488,10 +20418,10 @@
         <v>0.12</v>
       </c>
       <c r="N66">
-        <v>0.21568627450980299</v>
+        <v>0.218181818181818</v>
       </c>
       <c r="O66">
-        <v>0.24137931034482701</v>
+        <v>0.24489795918367299</v>
       </c>
       <c r="P66">
         <v>0.28301886792452802</v>
@@ -20500,19 +20430,19 @@
         <v>1.8181818181818101E-2</v>
       </c>
       <c r="R66">
-        <v>1.8867924528301799E-2</v>
+        <v>1.9230769230769201E-2</v>
       </c>
       <c r="S66">
         <v>0.02</v>
       </c>
       <c r="T66">
-        <v>0.34693877551020402</v>
+        <v>0.34615384615384598</v>
       </c>
       <c r="U66">
-        <v>0.39583333333333298</v>
+        <v>0.39215686274509798</v>
       </c>
       <c r="V66">
-        <v>0.4375</v>
+        <v>0.43396226415094302</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -20523,7 +20453,7 @@
         <v>0.17307692307692299</v>
       </c>
       <c r="C67">
-        <v>0.21568627450980299</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="D67">
         <v>0.25</v>
@@ -20532,7 +20462,7 @@
         <v>2.04081632653061E-2</v>
       </c>
       <c r="F67">
-        <v>4.08163265306122E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="G67">
         <v>6.3829787234042507E-2</v>
@@ -20553,16 +20483,16 @@
         <v>7.5471698113207503E-2</v>
       </c>
       <c r="M67">
-        <v>0.122448979591836</v>
+        <v>0.122807017543859</v>
       </c>
       <c r="N67">
         <v>0.22</v>
       </c>
       <c r="O67">
-        <v>0.245283018867924</v>
+        <v>0.24561403508771901</v>
       </c>
       <c r="P67">
-        <v>0.28571428571428498</v>
+        <v>0.28846153846153799</v>
       </c>
       <c r="Q67">
         <v>1.85185185185185E-2</v>
@@ -20571,16 +20501,16 @@
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="S67">
-        <v>2.04081632653061E-2</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="T67">
-        <v>0.34</v>
+        <v>0.33928571428571402</v>
       </c>
       <c r="U67">
-        <v>0.38775510204081598</v>
+        <v>0.38461538461538403</v>
       </c>
       <c r="V67">
-        <v>0.43103448275862</v>
+        <v>0.42857142857142799</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
@@ -20594,7 +20524,7 @@
         <v>0.218181818181818</v>
       </c>
       <c r="D68">
-        <v>0.25</v>
+        <v>0.25454545454545402</v>
       </c>
       <c r="E68">
         <v>2.0833333333333301E-2</v>
@@ -20618,37 +20548,37 @@
         <v>5.7692307692307598E-2</v>
       </c>
       <c r="L68">
-        <v>7.69230769230769E-2</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="M68">
         <v>0.125</v>
       </c>
       <c r="N68">
-        <v>0.22222222222222199</v>
+        <v>0.22448979591836701</v>
       </c>
       <c r="O68">
         <v>0.25</v>
       </c>
       <c r="P68">
-        <v>0.28888888888888797</v>
+        <v>0.29166666666666602</v>
       </c>
       <c r="Q68">
-        <v>1.8867924528301799E-2</v>
+        <v>1.9230769230769201E-2</v>
       </c>
       <c r="R68">
         <v>0.02</v>
       </c>
       <c r="S68">
-        <v>2.0833333333333301E-2</v>
+        <v>2.1276595744680799E-2</v>
       </c>
       <c r="T68">
         <v>0.33333333333333298</v>
       </c>
       <c r="U68">
-        <v>0.381818181818181</v>
+        <v>0.37777777777777699</v>
       </c>
       <c r="V68">
-        <v>0.42307692307692302</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
@@ -20656,22 +20586,22 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.17307692307692299</v>
+        <v>0.17391304347826</v>
       </c>
       <c r="C69">
         <v>0.22</v>
       </c>
       <c r="D69">
-        <v>0.25490196078431299</v>
+        <v>0.25531914893617003</v>
       </c>
       <c r="E69">
-        <v>2.0833333333333301E-2</v>
+        <v>2.1276595744680799E-2</v>
       </c>
       <c r="F69">
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="G69">
-        <v>6.3829787234042507E-2</v>
+        <v>6.5217391304347797E-2</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -20683,40 +20613,40 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>5.8823529411764698E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L69">
-        <v>7.8431372549019607E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M69">
-        <v>0.12765957446808501</v>
+        <v>0.12962962962962901</v>
       </c>
       <c r="N69">
-        <v>0.22641509433962201</v>
+        <v>0.22727272727272699</v>
       </c>
       <c r="O69">
         <v>0.25490196078431299</v>
       </c>
       <c r="P69">
-        <v>0.29411764705882298</v>
+        <v>0.29545454545454503</v>
       </c>
       <c r="Q69">
-        <v>1.9230769230769201E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="R69">
-        <v>2.04081632653061E-2</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="S69">
-        <v>2.1276595744680799E-2</v>
+        <v>2.1739130434782601E-2</v>
       </c>
       <c r="T69">
-        <v>0.32653061224489699</v>
+        <v>0.320754716981132</v>
       </c>
       <c r="U69">
-        <v>0.375</v>
+        <v>0.36956521739130399</v>
       </c>
       <c r="V69">
-        <v>0.41666666666666602</v>
+        <v>0.41304347826086901</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -20730,13 +20660,13 @@
         <v>0.22222222222222199</v>
       </c>
       <c r="D70">
-        <v>0.25531914893617003</v>
+        <v>0.25581395348837199</v>
       </c>
       <c r="E70">
-        <v>2.1276595744680799E-2</v>
+        <v>2.1739130434782601E-2</v>
       </c>
       <c r="F70">
-        <v>4.2553191489361701E-2</v>
+        <v>4.3478260869565202E-2</v>
       </c>
       <c r="G70">
         <v>6.5217391304347797E-2</v>
@@ -20751,40 +20681,40 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0.06</v>
+        <v>6.1224489795918297E-2</v>
       </c>
       <c r="L70">
         <v>8.16326530612244E-2</v>
       </c>
       <c r="M70">
-        <v>0.13043478260869501</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="N70">
         <v>0.22916666666666599</v>
       </c>
       <c r="O70">
-        <v>0.25581395348837199</v>
+        <v>0.26</v>
       </c>
       <c r="P70">
-        <v>0.29787234042553101</v>
+        <v>0.3</v>
       </c>
       <c r="Q70">
         <v>0.02</v>
       </c>
       <c r="R70">
-        <v>2.0833333333333301E-2</v>
+        <v>2.1276595744680799E-2</v>
       </c>
       <c r="S70">
         <v>2.2222222222222199E-2</v>
       </c>
       <c r="T70">
-        <v>0.31914893617021201</v>
+        <v>0.31372549019607798</v>
       </c>
       <c r="U70">
-        <v>0.36585365853658502</v>
+        <v>0.36363636363636298</v>
       </c>
       <c r="V70">
-        <v>0.40909090909090901</v>
+        <v>0.407407407407407</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -20798,7 +20728,7 @@
         <v>0.22222222222222199</v>
       </c>
       <c r="D71">
-        <v>0.25581395348837199</v>
+        <v>0.26</v>
       </c>
       <c r="E71">
         <v>2.1739130434782601E-2</v>
@@ -20825,19 +20755,19 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="M71">
-        <v>0.134615384615384</v>
+        <v>0.13636363636363599</v>
       </c>
       <c r="N71">
         <v>0.232558139534883</v>
       </c>
       <c r="O71">
-        <v>0.26086956521739102</v>
+        <v>0.26190476190476097</v>
       </c>
       <c r="P71">
         <v>0.30434782608695599</v>
       </c>
       <c r="Q71">
-        <v>2.04081632653061E-2</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="R71">
         <v>2.1739130434782601E-2</v>
@@ -20846,13 +20776,13 @@
         <v>2.27272727272727E-2</v>
       </c>
       <c r="T71">
-        <v>0.31111111111111101</v>
+        <v>0.30612244897959101</v>
       </c>
       <c r="U71">
-        <v>0.35849056603773499</v>
+        <v>0.35555555555555501</v>
       </c>
       <c r="V71">
-        <v>0.40384615384615302</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -20866,7 +20796,7 @@
         <v>0.22448979591836701</v>
       </c>
       <c r="D72">
-        <v>0.26086956521739102</v>
+        <v>0.26190476190476097</v>
       </c>
       <c r="E72">
         <v>2.2222222222222199E-2</v>
@@ -20887,40 +20817,40 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>6.3829787234042507E-2</v>
+        <v>6.5217391304347797E-2</v>
       </c>
       <c r="L72">
-        <v>8.5106382978723402E-2</v>
+        <v>8.6956521739130405E-2</v>
       </c>
       <c r="M72">
         <v>0.13953488372093001</v>
       </c>
       <c r="N72">
-        <v>0.23404255319148901</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="O72">
-        <v>0.265306122448979</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="P72">
-        <v>0.30769230769230699</v>
+        <v>0.30952380952380898</v>
       </c>
       <c r="Q72">
-        <v>2.0833333333333301E-2</v>
+        <v>2.1276595744680799E-2</v>
       </c>
       <c r="R72">
         <v>2.2222222222222199E-2</v>
       </c>
       <c r="S72">
-        <v>2.3255813953488299E-2</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="T72">
-        <v>0.30232558139534799</v>
+        <v>0.29787234042553101</v>
       </c>
       <c r="U72">
-        <v>0.35</v>
+        <v>0.34782608695652101</v>
       </c>
       <c r="V72">
-        <v>0.39534883720930197</v>
+        <v>0.39130434782608697</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
@@ -20955,40 +20885,40 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>6.5217391304347797E-2</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="L73">
-        <v>8.6956521739130405E-2</v>
+        <v>8.8888888888888795E-2</v>
       </c>
       <c r="M73">
         <v>0.14285714285714199</v>
       </c>
       <c r="N73">
-        <v>0.238095238095238</v>
+        <v>0.23913043478260801</v>
       </c>
       <c r="O73">
-        <v>0.26829268292682901</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="P73">
-        <v>0.31111111111111101</v>
+        <v>0.3125</v>
       </c>
       <c r="Q73">
         <v>2.1739130434782601E-2</v>
       </c>
       <c r="R73">
-        <v>2.27272727272727E-2</v>
+        <v>2.3255813953488299E-2</v>
       </c>
       <c r="S73">
-        <v>2.3809523809523801E-2</v>
+        <v>2.4390243902439001E-2</v>
       </c>
       <c r="T73">
-        <v>0.292682926829268</v>
+        <v>0.28947368421052599</v>
       </c>
       <c r="U73">
-        <v>0.34146341463414598</v>
+        <v>0.34090909090909</v>
       </c>
       <c r="V73">
-        <v>0.38636363636363602</v>
+        <v>0.38297872340425498</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
@@ -21002,7 +20932,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="D74">
-        <v>0.26315789473684198</v>
+        <v>0.265306122448979</v>
       </c>
       <c r="E74">
         <v>2.3255813953488299E-2</v>
@@ -21038,25 +20968,25 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="P74">
-        <v>0.31707317073170699</v>
+        <v>0.31818181818181801</v>
       </c>
       <c r="Q74">
-        <v>2.2222222222222199E-2</v>
+        <v>2.27272727272727E-2</v>
       </c>
       <c r="R74">
-        <v>2.3255813953488299E-2</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="S74">
-        <v>2.4390243902439001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="T74">
-        <v>0.28571428571428498</v>
+        <v>0.28205128205128199</v>
       </c>
       <c r="U74">
         <v>0.33333333333333298</v>
       </c>
       <c r="V74">
-        <v>0.38095238095237999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -21067,7 +20997,7 @@
         <v>0.17391304347826</v>
       </c>
       <c r="C75">
-        <v>0.22500000000000001</v>
+        <v>0.22727272727272699</v>
       </c>
       <c r="D75">
         <v>0.266666666666666</v>
@@ -21091,25 +21021,25 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>6.9767441860465101E-2</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="L75">
-        <v>9.3023255813953404E-2</v>
+        <v>9.5238095238095205E-2</v>
       </c>
       <c r="M75">
-        <v>0.15</v>
+        <v>0.15217391304347799</v>
       </c>
       <c r="N75">
-        <v>0.24390243902438999</v>
+        <v>0.25</v>
       </c>
       <c r="O75">
         <v>0.27906976744186002</v>
       </c>
       <c r="P75">
-        <v>0.32432432432432401</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="Q75">
-        <v>2.27272727272727E-2</v>
+        <v>2.3255813953488299E-2</v>
       </c>
       <c r="R75">
         <v>2.4390243902439001E-2</v>
@@ -21118,13 +21048,13 @@
         <v>2.5641025641025599E-2</v>
       </c>
       <c r="T75">
-        <v>0.27500000000000002</v>
+        <v>0.27272727272727199</v>
       </c>
       <c r="U75">
-        <v>0.32558139534883701</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="V75">
-        <v>0.372093023255813</v>
+        <v>0.36842105263157798</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -21132,7 +21062,7 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.17391304347826</v>
+        <v>0.17073170731707299</v>
       </c>
       <c r="C76">
         <v>0.22727272727272699</v>
@@ -21147,7 +21077,7 @@
         <v>4.54545454545454E-2</v>
       </c>
       <c r="G76">
-        <v>6.6666666666666596E-2</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -21159,40 +21089,40 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>7.1428571428571397E-2</v>
+        <v>7.3170731707316999E-2</v>
       </c>
       <c r="L76">
-        <v>9.5238095238095205E-2</v>
+        <v>9.7560975609756101E-2</v>
       </c>
       <c r="M76">
-        <v>0.15384615384615299</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="N76">
         <v>0.25</v>
       </c>
       <c r="O76">
-        <v>0.28205128205128199</v>
+        <v>0.28571428571428498</v>
       </c>
       <c r="P76">
-        <v>0.32500000000000001</v>
+        <v>0.32558139534883701</v>
       </c>
       <c r="Q76">
         <v>2.3809523809523801E-2</v>
       </c>
       <c r="R76">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5641025641025599E-2</v>
       </c>
       <c r="S76">
         <v>2.6315789473684199E-2</v>
       </c>
       <c r="T76">
-        <v>0.26829268292682901</v>
+        <v>0.26315789473684198</v>
       </c>
       <c r="U76">
-        <v>0.31707317073170699</v>
+        <v>0.31578947368421001</v>
       </c>
       <c r="V76">
-        <v>0.36363636363636298</v>
+        <v>0.35897435897435898</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -21203,16 +21133,16 @@
         <v>0.17073170731707299</v>
       </c>
       <c r="C77">
-        <v>0.22727272727272699</v>
+        <v>0.22857142857142801</v>
       </c>
       <c r="D77">
         <v>0.27027027027027001</v>
       </c>
       <c r="E77">
-        <v>2.4390243902439001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F77">
-        <v>4.54545454545454E-2</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="G77">
         <v>5.7142857142857099E-2</v>
@@ -21233,34 +21163,34 @@
         <v>0.1</v>
       </c>
       <c r="M77">
-        <v>0.15909090909090901</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="N77">
-        <v>0.25</v>
+        <v>0.256410256410256</v>
       </c>
       <c r="O77">
-        <v>0.28571428571428498</v>
+        <v>0.28947368421052599</v>
       </c>
       <c r="P77">
         <v>0.33333333333333298</v>
       </c>
       <c r="Q77">
-        <v>2.4390243902439001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R77">
-        <v>2.5641025641025599E-2</v>
+        <v>2.6315789473684199E-2</v>
       </c>
       <c r="S77">
-        <v>2.7027027027027001E-2</v>
+        <v>2.77777777777777E-2</v>
       </c>
       <c r="T77">
-        <v>0.256410256410256</v>
+        <v>0.25581395348837199</v>
       </c>
       <c r="U77">
-        <v>0.30769230769230699</v>
+        <v>0.30555555555555503</v>
       </c>
       <c r="V77">
-        <v>0.35714285714285698</v>
+        <v>0.35135135135135098</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -21277,7 +21207,7 @@
         <v>0.27027027027027001</v>
       </c>
       <c r="E78">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5641025641025599E-2</v>
       </c>
       <c r="F78">
         <v>2.94117647058823E-2</v>
@@ -21295,22 +21225,22 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>7.69230769230769E-2</v>
+        <v>7.8947368421052599E-2</v>
       </c>
       <c r="L78">
-        <v>0.10256410256410201</v>
+        <v>0.105263157894736</v>
       </c>
       <c r="M78">
         <v>0.16666666666666599</v>
       </c>
       <c r="N78">
-        <v>0.256410256410256</v>
+        <v>0.25714285714285701</v>
       </c>
       <c r="O78">
-        <v>0.28947368421052599</v>
+        <v>0.29411764705882298</v>
       </c>
       <c r="P78">
-        <v>0.33333333333333298</v>
+        <v>0.34146341463414598</v>
       </c>
       <c r="Q78">
         <v>2.5641025641025599E-2</v>
@@ -21319,16 +21249,16 @@
         <v>2.7027027027027001E-2</v>
       </c>
       <c r="S78">
-        <v>2.77777777777777E-2</v>
+        <v>2.8571428571428501E-2</v>
       </c>
       <c r="T78">
-        <v>0.25</v>
+        <v>0.24390243902438999</v>
       </c>
       <c r="U78">
-        <v>0.3</v>
+        <v>0.29729729729729698</v>
       </c>
       <c r="V78">
-        <v>0.35</v>
+        <v>0.34285714285714203</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -21336,7 +21266,7 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.17073170731707299</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="C79">
         <v>0.22857142857142801</v>
@@ -21345,7 +21275,7 @@
         <v>0.27272727272727199</v>
       </c>
       <c r="E79">
-        <v>2.5641025641025599E-2</v>
+        <v>2.6315789473684199E-2</v>
       </c>
       <c r="F79">
         <v>3.03030303030303E-2</v>
@@ -21363,40 +21293,40 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>7.8947368421052599E-2</v>
+        <v>8.1081081081081002E-2</v>
       </c>
       <c r="L79">
-        <v>0.105263157894736</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="M79">
         <v>0.17142857142857101</v>
       </c>
       <c r="N79">
-        <v>0.25714285714285701</v>
+        <v>0.26315789473684198</v>
       </c>
       <c r="O79">
-        <v>0.29411764705882298</v>
+        <v>0.29729729729729698</v>
       </c>
       <c r="P79">
         <v>0.34285714285714203</v>
       </c>
       <c r="Q79">
-        <v>2.6315789473684199E-2</v>
+        <v>2.7027027027027001E-2</v>
       </c>
       <c r="R79">
-        <v>2.77777777777777E-2</v>
+        <v>2.8571428571428501E-2</v>
       </c>
       <c r="S79">
         <v>2.94117647058823E-2</v>
       </c>
       <c r="T79">
-        <v>0.24242424242424199</v>
+        <v>0.23529411764705799</v>
       </c>
       <c r="U79">
-        <v>0.29411764705882298</v>
+        <v>0.28947368421052599</v>
       </c>
       <c r="V79">
-        <v>0.34210526315789402</v>
+        <v>0.33333333333333298</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
@@ -21416,10 +21346,10 @@
         <v>2.6315789473684199E-2</v>
       </c>
       <c r="F80">
-        <v>3.03030303030303E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G80">
-        <v>5.8823529411764698E-2</v>
+        <v>6.0606060606060601E-2</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -21431,13 +21361,13 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>8.3333333333333301E-2</v>
+        <v>8.5714285714285701E-2</v>
       </c>
       <c r="L80">
         <v>0.11111111111111099</v>
       </c>
       <c r="M80">
-        <v>0.17647058823529399</v>
+        <v>0.17948717948717899</v>
       </c>
       <c r="N80">
         <v>0.26470588235294101</v>
@@ -21446,25 +21376,25 @@
         <v>0.30303030303030298</v>
       </c>
       <c r="P80">
-        <v>0.35135135135135098</v>
+        <v>0.35294117647058798</v>
       </c>
       <c r="Q80">
-        <v>2.7027027027027001E-2</v>
+        <v>2.77777777777777E-2</v>
       </c>
       <c r="R80">
-        <v>2.8571428571428501E-2</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="S80">
-        <v>3.03030303030303E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="T80">
-        <v>0.22857142857142801</v>
+        <v>0.225806451612903</v>
       </c>
       <c r="U80">
-        <v>0.28205128205128199</v>
+        <v>0.27777777777777701</v>
       </c>
       <c r="V80">
-        <v>0.33333333333333298</v>
+        <v>0.32432432432432401</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -21472,7 +21402,7 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.16666666666666599</v>
+        <v>0.16129032258064499</v>
       </c>
       <c r="C81">
         <v>0.225806451612903</v>
@@ -21484,10 +21414,10 @@
         <v>2.7027027027027001E-2</v>
       </c>
       <c r="F81">
-        <v>3.125E-2</v>
+        <v>3.2258064516128997E-2</v>
       </c>
       <c r="G81">
-        <v>6.0606060606060601E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -21499,40 +21429,40 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>8.5714285714285701E-2</v>
+        <v>8.8235294117646995E-2</v>
       </c>
       <c r="L81">
-        <v>0.114285714285714</v>
+        <v>0.11764705882352899</v>
       </c>
       <c r="M81">
-        <v>0.18181818181818099</v>
+        <v>0.1875</v>
       </c>
       <c r="N81">
-        <v>0.266666666666666</v>
+        <v>0.27027027027027001</v>
       </c>
       <c r="O81">
-        <v>0.30555555555555503</v>
+        <v>0.31034482758620602</v>
       </c>
       <c r="P81">
-        <v>0.35294117647058798</v>
+        <v>0.35483870967741898</v>
       </c>
       <c r="Q81">
-        <v>2.8571428571428501E-2</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="R81">
         <v>3.03030303030303E-2</v>
       </c>
       <c r="S81">
-        <v>3.125E-2</v>
+        <v>3.2258064516128997E-2</v>
       </c>
       <c r="T81">
-        <v>0.22222222222222199</v>
+        <v>0.21875</v>
       </c>
       <c r="U81">
-        <v>0.27272727272727199</v>
+        <v>0.27027027027027001</v>
       </c>
       <c r="V81">
-        <v>0.32258064516128998</v>
+        <v>0.32142857142857101</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
@@ -21546,7 +21476,7 @@
         <v>0.225806451612903</v>
       </c>
       <c r="D82">
-        <v>0.27272727272727199</v>
+        <v>0.27586206896551702</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -21573,34 +21503,34 @@
         <v>0.12121212121212099</v>
       </c>
       <c r="M82">
-        <v>0.1875</v>
+        <v>0.19354838709677399</v>
       </c>
       <c r="N82">
-        <v>0.27272727272727199</v>
+        <v>0.27586206896551702</v>
       </c>
       <c r="O82">
         <v>0.3125</v>
       </c>
       <c r="P82">
-        <v>0.36111111111111099</v>
+        <v>0.36363636363636298</v>
       </c>
       <c r="Q82">
-        <v>2.94117647058823E-2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="R82">
-        <v>3.125E-2</v>
+        <v>3.2258064516128997E-2</v>
       </c>
       <c r="S82">
-        <v>3.2258064516128997E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="T82">
-        <v>0.21212121212121199</v>
+        <v>0.20588235294117599</v>
       </c>
       <c r="U82">
-        <v>0.26470588235294101</v>
+        <v>0.25806451612903197</v>
       </c>
       <c r="V82">
-        <v>0.3125</v>
+        <v>0.31034482758620602</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
@@ -21608,10 +21538,10 @@
         <v>0.81</v>
       </c>
       <c r="B83">
-        <v>0.16129032258064499</v>
+        <v>0.15625</v>
       </c>
       <c r="C83">
-        <v>0.225806451612903</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="D83">
         <v>0.27586206896551702</v>
@@ -21635,19 +21565,19 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>9.375E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="L83">
         <v>0.125</v>
       </c>
       <c r="M83">
-        <v>0.19354838709677399</v>
+        <v>0.2</v>
       </c>
       <c r="N83">
         <v>0.27586206896551702</v>
       </c>
       <c r="O83">
-        <v>0.3125</v>
+        <v>0.32142857142857101</v>
       </c>
       <c r="P83">
         <v>0.36666666666666597</v>
@@ -21656,19 +21586,19 @@
         <v>3.125E-2</v>
       </c>
       <c r="R83">
-        <v>3.2258064516128997E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="S83">
         <v>3.4482758620689599E-2</v>
       </c>
       <c r="T83">
-        <v>0.2</v>
+        <v>0.19354838709677399</v>
       </c>
       <c r="U83">
-        <v>0.25806451612903197</v>
+        <v>0.25</v>
       </c>
       <c r="V83">
-        <v>0.30303030303030298</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
@@ -21676,7 +21606,7 @@
         <v>0.82</v>
       </c>
       <c r="B84">
-        <v>0.15625</v>
+        <v>0.15151515151515099</v>
       </c>
       <c r="C84">
         <v>0.22222222222222199</v>
@@ -21691,7 +21621,7 @@
         <v>3.4482758620689599E-2</v>
       </c>
       <c r="G84">
-        <v>6.4516129032257993E-2</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -21703,40 +21633,40 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>9.6774193548387094E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L84">
-        <v>0.12903225806451599</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="M84">
-        <v>0.2</v>
+        <v>0.20689655172413701</v>
       </c>
       <c r="N84">
-        <v>0.27586206896551702</v>
+        <v>0.28125</v>
       </c>
       <c r="O84">
-        <v>0.32142857142857101</v>
+        <v>0.32258064516128998</v>
       </c>
       <c r="P84">
-        <v>0.37037037037037002</v>
+        <v>0.375</v>
       </c>
       <c r="Q84">
-        <v>3.2258064516128997E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="R84">
         <v>3.4482758620689599E-2</v>
       </c>
       <c r="S84">
-        <v>3.5714285714285698E-2</v>
+        <v>3.7037037037037E-2</v>
       </c>
       <c r="T84">
-        <v>0.19230769230769201</v>
+        <v>0.18518518518518501</v>
       </c>
       <c r="U84">
-        <v>0.24242424242424199</v>
+        <v>0.24137931034482701</v>
       </c>
       <c r="V84">
-        <v>0.296296296296296</v>
+        <v>0.29032258064516098</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
@@ -21747,7 +21677,7 @@
         <v>0.148148148148148</v>
       </c>
       <c r="C85">
-        <v>0.22222222222222199</v>
+        <v>0.21875</v>
       </c>
       <c r="D85">
         <v>0.27586206896551702</v>
@@ -21771,10 +21701,10 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0.10344827586206801</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="L85">
-        <v>0.133333333333333</v>
+        <v>0.13793103448275801</v>
       </c>
       <c r="M85">
         <v>0.214285714285714</v>
@@ -21783,7 +21713,7 @@
         <v>0.28571428571428498</v>
       </c>
       <c r="O85">
-        <v>0.32258064516128998</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="P85">
         <v>0.37931034482758602</v>
@@ -21792,19 +21722,19 @@
         <v>3.4482758620689599E-2</v>
       </c>
       <c r="R85">
-        <v>3.5714285714285698E-2</v>
+        <v>3.7037037037037E-2</v>
       </c>
       <c r="S85">
-        <v>3.7037037037037E-2</v>
+        <v>3.8461538461538401E-2</v>
       </c>
       <c r="T85">
         <v>0.17857142857142799</v>
       </c>
       <c r="U85">
-        <v>0.233333333333333</v>
+        <v>0.23076923076923</v>
       </c>
       <c r="V85">
-        <v>0.28571428571428498</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
@@ -21824,7 +21754,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>3.7037037037037E-2</v>
+        <v>3.8461538461538401E-2</v>
       </c>
       <c r="G86">
         <v>4.3478260869565202E-2</v>
@@ -21839,40 +21769,40 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0.107142857142857</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="L86">
-        <v>0.14285714285714199</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="M86">
         <v>0.22222222222222199</v>
       </c>
       <c r="N86">
-        <v>0.28571428571428498</v>
+        <v>0.29166666666666602</v>
       </c>
       <c r="O86">
         <v>0.33333333333333298</v>
       </c>
       <c r="P86">
-        <v>0.38461538461538403</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="Q86">
-        <v>3.5714285714285698E-2</v>
+        <v>3.7037037037037E-2</v>
       </c>
       <c r="R86">
         <v>3.8461538461538401E-2</v>
       </c>
       <c r="S86">
-        <v>0.04</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="T86">
-        <v>0.16666666666666599</v>
+        <v>0.16</v>
       </c>
       <c r="U86">
-        <v>0.22222222222222199</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="V86">
-        <v>0.27586206896551702</v>
+        <v>0.269230769230769</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
@@ -21880,10 +21810,10 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.14285714285714199</v>
+        <v>0.13043478260869501</v>
       </c>
       <c r="C87">
-        <v>0.214285714285714</v>
+        <v>0.20833333333333301</v>
       </c>
       <c r="D87">
         <v>0.27272727272727199</v>
@@ -21892,7 +21822,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>3.8461538461538401E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G87">
         <v>4.3478260869565202E-2</v>
@@ -21907,10 +21837,10 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0.115384615384615</v>
+        <v>0.12</v>
       </c>
       <c r="L87">
-        <v>0.148148148148148</v>
+        <v>0.15384615384615299</v>
       </c>
       <c r="M87">
         <v>0.23076923076923</v>
@@ -21919,22 +21849,22 @@
         <v>0.29166666666666602</v>
       </c>
       <c r="O87">
-        <v>0.33333333333333298</v>
+        <v>0.34615384615384598</v>
       </c>
       <c r="P87">
         <v>0.39130434782608697</v>
       </c>
       <c r="Q87">
-        <v>3.8461538461538401E-2</v>
+        <v>0.04</v>
       </c>
       <c r="R87">
-        <v>0.04</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="S87">
-        <v>4.1666666666666602E-2</v>
+        <v>4.3478260869565202E-2</v>
       </c>
       <c r="T87">
-        <v>0.16</v>
+        <v>0.15384615384615299</v>
       </c>
       <c r="U87">
         <v>0.20833333333333301</v>
@@ -21960,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.04</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="G88">
         <v>4.54545454545454E-2</v>
@@ -21975,7 +21905,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="L88">
         <v>0.16</v>
@@ -21993,22 +21923,22 @@
         <v>0.4</v>
       </c>
       <c r="Q88">
-        <v>0.04</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="R88">
-        <v>4.1666666666666602E-2</v>
+        <v>4.3478260869565202E-2</v>
       </c>
       <c r="S88">
-        <v>4.3478260869565202E-2</v>
+        <v>4.54545454545454E-2</v>
       </c>
       <c r="T88">
         <v>0.13636363636363599</v>
       </c>
       <c r="U88">
-        <v>0.2</v>
+        <v>0.19047619047618999</v>
       </c>
       <c r="V88">
-        <v>0.26086956521739102</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
@@ -22043,10 +21973,10 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0.13043478260869501</v>
+        <v>0.13636363636363599</v>
       </c>
       <c r="L89">
-        <v>0.16666666666666599</v>
+        <v>0.17391304347826</v>
       </c>
       <c r="M89">
         <v>0.25</v>
@@ -22055,28 +21985,28 @@
         <v>0.3</v>
       </c>
       <c r="O89">
-        <v>0.34782608695652101</v>
+        <v>0.35</v>
       </c>
       <c r="P89">
         <v>0.40909090909090901</v>
       </c>
       <c r="Q89">
-        <v>4.3478260869565202E-2</v>
+        <v>4.54545454545454E-2</v>
       </c>
       <c r="R89">
-        <v>4.54545454545454E-2</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="S89">
-        <v>4.7619047619047603E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T89">
-        <v>0.13636363636363599</v>
+        <v>0.13043478260869501</v>
       </c>
       <c r="U89">
-        <v>0.19047619047618999</v>
+        <v>0.18181818181818099</v>
       </c>
       <c r="V89">
-        <v>0.24</v>
+        <v>0.238095238095238</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
@@ -22084,7 +22014,7 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.13043478260869501</v>
+        <v>0.105263157894736</v>
       </c>
       <c r="C90">
         <v>0.2</v>
@@ -22096,10 +22026,10 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>4.1666666666666602E-2</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.05</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -22111,40 +22041,40 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0.13636363636363599</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="L90">
-        <v>0.17391304347826</v>
+        <v>0.18181818181818099</v>
       </c>
       <c r="M90">
-        <v>0.26086956521739102</v>
+        <v>0.26315789473684198</v>
       </c>
       <c r="N90">
         <v>0.3</v>
       </c>
       <c r="O90">
-        <v>0.35</v>
+        <v>0.36363636363636298</v>
       </c>
       <c r="P90">
-        <v>0.40909090909090901</v>
+        <v>0.42105263157894701</v>
       </c>
       <c r="Q90">
-        <v>4.54545454545454E-2</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="R90">
-        <v>4.7619047619047603E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S90">
-        <v>0.05</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="T90">
         <v>0.105263157894736</v>
       </c>
       <c r="U90">
-        <v>0.18181818181818099</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="V90">
-        <v>0.238095238095238</v>
+        <v>0.22222222222222199</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
@@ -22152,10 +22082,10 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.105263157894736</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="C91">
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="D91">
         <v>0.26315789473684198</v>
@@ -22167,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>5.2631578947368397E-2</v>
+        <v>5.5555555555555497E-2</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -22179,28 +22109,28 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0.15</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="L91">
         <v>0.19047619047618999</v>
       </c>
       <c r="M91">
-        <v>0.26315789473684198</v>
+        <v>0.27777777777777701</v>
       </c>
       <c r="N91">
         <v>0.3</v>
       </c>
       <c r="O91">
-        <v>0.36363636363636298</v>
+        <v>0.36842105263157798</v>
       </c>
       <c r="P91">
         <v>0.42105263157894701</v>
       </c>
       <c r="Q91">
-        <v>0.05</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="R91">
-        <v>5.2631578947368397E-2</v>
+        <v>5.5555555555555497E-2</v>
       </c>
       <c r="S91">
         <v>5.5555555555555497E-2</v>
@@ -22226,7 +22156,7 @@
         <v>0.17647058823529399</v>
       </c>
       <c r="D92">
-        <v>0.26315789473684198</v>
+        <v>0.25</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -22235,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>5.5555555555555497E-2</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -22247,40 +22177,40 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0.157894736842105</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="L92">
-        <v>0.19047619047618999</v>
+        <v>0.2</v>
       </c>
       <c r="M92">
-        <v>0.27777777777777701</v>
+        <v>0.29411764705882298</v>
       </c>
       <c r="N92">
         <v>0.3125</v>
       </c>
       <c r="O92">
-        <v>0.36842105263157798</v>
+        <v>0.375</v>
       </c>
       <c r="P92">
-        <v>0.42105263157894701</v>
+        <v>0.4375</v>
       </c>
       <c r="Q92">
-        <v>5.2631578947368397E-2</v>
+        <v>5.5555555555555497E-2</v>
       </c>
       <c r="R92">
-        <v>5.5555555555555497E-2</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="S92">
-        <v>5.8823529411764698E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="T92">
-        <v>0.105263157894736</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U92">
-        <v>0.157894736842105</v>
+        <v>0.125</v>
       </c>
       <c r="V92">
-        <v>0.21052631578947301</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
@@ -22288,7 +22218,7 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.11111111111111099</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="C93">
         <v>0.17647058823529399</v>
@@ -22303,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>5.8823529411764698E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -22318,7 +22248,7 @@
         <v>0.17647058823529399</v>
       </c>
       <c r="L93">
-        <v>0.2</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="M93">
         <v>0.29411764705882298</v>
@@ -22333,19 +22263,19 @@
         <v>0.4375</v>
       </c>
       <c r="Q93">
-        <v>5.8823529411764698E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="R93">
-        <v>6.25E-2</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="S93">
-        <v>6.25E-2</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="T93">
-        <v>6.25E-2</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="U93">
-        <v>0.125</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="V93">
         <v>0.1875</v>
@@ -22359,10 +22289,10 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="C94">
-        <v>0.14285714285714199</v>
+        <v>0.15384615384615299</v>
       </c>
       <c r="D94">
-        <v>0.25</v>
+        <v>0.23076923076923</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -22371,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>6.25E-2</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -22383,40 +22313,40 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="L94">
-        <v>0.214285714285714</v>
+        <v>0.23076923076923</v>
       </c>
       <c r="M94">
-        <v>0.3125</v>
+        <v>0.30769230769230699</v>
       </c>
       <c r="N94">
-        <v>0.3125</v>
+        <v>0.30769230769230699</v>
       </c>
       <c r="O94">
-        <v>0.375</v>
+        <v>0.38461538461538403</v>
       </c>
       <c r="P94">
-        <v>0.4375</v>
+        <v>0.46153846153846101</v>
       </c>
       <c r="Q94">
         <v>6.6666666666666596E-2</v>
       </c>
       <c r="R94">
-        <v>6.6666666666666596E-2</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="S94">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="T94">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="T94">
-        <v>6.6666666666666596E-2</v>
-      </c>
       <c r="U94">
-        <v>0.133333333333333</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="V94">
-        <v>0.1875</v>
+        <v>0.15384615384615299</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
@@ -22439,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>6.6666666666666596E-2</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -22454,13 +22384,13 @@
         <v>0.214285714285714</v>
       </c>
       <c r="L95">
-        <v>0.23076923076923</v>
+        <v>0.25</v>
       </c>
       <c r="M95">
-        <v>0.30769230769230699</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="N95">
-        <v>0.30769230769230699</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="O95">
         <v>0.38461538461538403</v>
@@ -22469,22 +22399,22 @@
         <v>0.46153846153846101</v>
       </c>
       <c r="Q95">
-        <v>7.1428571428571397E-2</v>
+        <v>7.69230769230769E-2</v>
       </c>
       <c r="R95">
-        <v>7.69230769230769E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="S95">
-        <v>7.69230769230769E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="T95">
-        <v>7.1428571428571397E-2</v>
+        <v>0</v>
       </c>
       <c r="U95">
-        <v>7.69230769230769E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="V95">
-        <v>0.15384615384615299</v>
+        <v>0.16666666666666599</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
@@ -22492,13 +22422,13 @@
         <v>0.94</v>
       </c>
       <c r="B96">
-        <v>7.69230769230769E-2</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0.15384615384615299</v>
+        <v>0.1</v>
       </c>
       <c r="D96">
-        <v>0.23076923076923</v>
+        <v>0.2</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -22525,34 +22455,34 @@
         <v>0.27272727272727199</v>
       </c>
       <c r="M96">
-        <v>0.33333333333333298</v>
+        <v>0.36363636363636298</v>
       </c>
       <c r="N96">
-        <v>0.33333333333333298</v>
+        <v>0.3</v>
       </c>
       <c r="O96">
-        <v>0.38461538461538403</v>
+        <v>0.4</v>
       </c>
       <c r="P96">
         <v>0.45454545454545398</v>
       </c>
       <c r="Q96">
-        <v>8.3333333333333301E-2</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="R96">
-        <v>8.3333333333333301E-2</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="S96">
+        <v>0.1</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="T96">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <v>8.3333333333333301E-2</v>
-      </c>
       <c r="V96">
-        <v>0.16666666666666599</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
@@ -22563,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0.1</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="D97">
         <v>0.2</v>
@@ -22590,37 +22520,37 @@
         <v>0.22222222222222199</v>
       </c>
       <c r="L97">
-        <v>0.3</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="M97">
-        <v>0.36363636363636298</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="N97">
-        <v>0.3</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="O97">
         <v>0.4</v>
       </c>
       <c r="P97">
-        <v>0.45454545454545398</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="Q97">
-        <v>9.0909090909090898E-2</v>
+        <v>0.1</v>
       </c>
       <c r="R97">
-        <v>0.1</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="S97">
-        <v>0.1</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="T97">
         <v>0</v>
       </c>
       <c r="U97">
-        <v>9.0909090909090898E-2</v>
+        <v>0</v>
       </c>
       <c r="V97">
-        <v>0.1</v>
+        <v>0.11111111111111099</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
@@ -22631,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.11111111111111099</v>
+        <v>0.125</v>
       </c>
       <c r="D98">
-        <v>0.22222222222222199</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -22658,13 +22588,13 @@
         <v>0.25</v>
       </c>
       <c r="L98">
-        <v>0.33333333333333298</v>
+        <v>0.375</v>
       </c>
       <c r="M98">
         <v>0.375</v>
       </c>
       <c r="N98">
-        <v>0.33333333333333298</v>
+        <v>0.28571428571428498</v>
       </c>
       <c r="O98">
         <v>0.375</v>
@@ -22673,22 +22603,22 @@
         <v>0.44444444444444398</v>
       </c>
       <c r="Q98">
-        <v>0.11111111111111099</v>
+        <v>0.125</v>
       </c>
       <c r="R98">
-        <v>0.11111111111111099</v>
+        <v>0.125</v>
       </c>
       <c r="S98">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
         <v>0.125</v>
-      </c>
-      <c r="T98">
-        <v>0</v>
-      </c>
-      <c r="U98">
-        <v>0</v>
-      </c>
-      <c r="V98">
-        <v>0.11111111111111099</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
@@ -22702,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0.14285714285714199</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -22723,31 +22653,31 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0.28571428571428498</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L99">
-        <v>0.375</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="M99">
         <v>0.42857142857142799</v>
       </c>
       <c r="N99">
-        <v>0.28571428571428498</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="O99">
-        <v>0.42857142857142799</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="P99">
-        <v>0.42857142857142799</v>
+        <v>0.5</v>
       </c>
       <c r="Q99">
-        <v>0.14285714285714199</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="R99">
-        <v>0.14285714285714199</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="S99">
-        <v>0.14285714285714199</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -22756,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="V99">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
@@ -22770,7 +22700,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0.16666666666666599</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -22791,31 +22721,31 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0.33333333333333298</v>
+        <v>0.4</v>
       </c>
       <c r="L100">
-        <v>0.33333333333333298</v>
+        <v>0.4</v>
       </c>
       <c r="M100">
         <v>0.4</v>
       </c>
       <c r="N100">
-        <v>0.33333333333333298</v>
+        <v>0.25</v>
       </c>
       <c r="O100">
-        <v>0.33333333333333298</v>
+        <v>0.4</v>
       </c>
       <c r="P100">
         <v>0.4</v>
       </c>
       <c r="Q100">
-        <v>0.16666666666666599</v>
+        <v>0.2</v>
       </c>
       <c r="R100">
-        <v>0.16666666666666599</v>
+        <v>0.2</v>
       </c>
       <c r="S100">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -22859,31 +22789,31 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0.25</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L101">
-        <v>0.5</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="M101">
-        <v>0.5</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="N101">
-        <v>0.25</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="O101">
-        <v>0.25</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="P101">
-        <v>0.25</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="R101">
-        <v>0.25</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="S101">
-        <v>0.25</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -22927,13 +22857,13 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -22945,13 +22875,13 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T102">
         <v>0</v>

--- a/excels/excel-100_typeStatisticsByPercentageSummarized.xlsx
+++ b/excels/excel-100_typeStatisticsByPercentageSummarized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{677FCD6A-3452-4AD3-873D-783CE2ACF137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173E224D-56A4-4962-ADF2-A182252A7F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,6 +619,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2BD0DD"/>
+      <color rgb="FFFADF63"/>
+      <color rgb="FFE7E6F7"/>
+      <color rgb="FFC4A69D"/>
+      <color rgb="FFEA526F"/>
+      <color rgb="FF20A39E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -676,7 +686,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.5865853783228333E-2"/>
+          <c:y val="8.38782653706584E-2"/>
+          <c:w val="0.94598192591811292"/>
+          <c:h val="0.7585259561619454"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -697,8 +717,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="2BD0DD"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -707,13 +728,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1366,7 +1383,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="2BD0DD"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1377,11 +1394,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="2BD0DD"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="2BD0DD"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2035,8 +2052,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="2BD0DD"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2045,13 +2063,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2704,8 +2718,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FADF63"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2714,13 +2729,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3373,7 +3384,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="FADF63"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3384,11 +3395,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="FADF63"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="FADF63"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4042,8 +4053,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FADF63"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4052,13 +4064,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4691,2031 +4699,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-91DD-4F08-9B9D-62A4655D98A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>low-Exit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$H$2:$H$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-91DD-4F08-9B9D-62A4655D98A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>median-Exit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$I$2:$I$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-91DD-4F08-9B9D-62A4655D98A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>high-Exit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$J$2:$J$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6736,10 +4719,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C4A69D"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6748,17 +4730,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -7411,9 +5385,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C4A69D"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7424,15 +5396,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C4A69D"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C4A69D"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -8086,10 +6054,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C4A69D"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8098,17 +6065,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -8761,11 +6720,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="EA526F"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8774,19 +6731,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -9439,10 +7386,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="EA526F"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9453,17 +7397,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="EA526F"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="EA526F"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -10117,11 +8055,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="EA526F"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -10130,19 +8066,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -10775,684 +8701,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-91DD-4F08-9B9D-62A4655D98A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>low-Statechart</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$Q$2:$Q$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>9.7087378640776604E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7087378640776604E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7087378640776604E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7087378640776604E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.7087378640776604E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.7087378640776604E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.7087378640776604E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.7087378640776604E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7087378640776604E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.8039215686274508E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8039215686274508E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.8039215686274508E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.9009900990098994E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.9009900990098994E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.01010101010101E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.01010101010101E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0204081632653E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0204081632653E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.03092783505154E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.03092783505154E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.04166666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.0526315789473601E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0526315789473601E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0638297872340399E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.0869565217391301E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.09890109890109E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.1111111111111099E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.1111111111111099E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.12359550561797E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.13636363636363E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.1494252873563199E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.1627906976744099E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.1764705882352899E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.1904761904761901E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.1904761904761901E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.20481927710843E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.21951219512195E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.23456790123456E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.26582278481012E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.2820512820512799E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.2987012987012899E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.3157894736842099E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.3333333333333299E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.35135135135135E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.3698630136986301E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.4084507042253501E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.42857142857142E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.4492753623188401E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.47058823529411E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.4925373134328301E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.51515151515151E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.53846153846153E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.6129032258064498E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.63934426229508E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.6666666666666601E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.6949152542372801E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.72413793103448E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.7857142857142801E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.8181818181818101E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.85185185185185E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.9230769230769201E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.9607843137254902E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.0833333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.1276595744680799E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.1739130434782601E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.27272727272727E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.3255813953488299E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.3809523809523801E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.5641025641025599E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.7027027027027001E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.77777777777777E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.94117647058823E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.03030303030303E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.3333333333333298E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.4482758620689599E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.7037037037037E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.1666666666666602E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.54545454545454E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.7619047619047603E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.2631578947368397E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.5555555555555497E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.6666666666666596E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7.69230769230769E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.0909090909090898E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.16666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11471,12 +8719,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="60325" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="E7E6F7"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11486,19 +8731,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -12131,684 +9366,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-91DD-4F08-9B9D-62A4655D98A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>high-Statechart</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'100_typeStatisticsByPercentageS'!$S$2:$S$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0752688172042999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0869565217391301E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0869565217391301E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0869565217391301E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.09890109890109E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.09890109890109E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.09890109890109E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1111111111111099E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1111111111111099E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1111111111111099E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.12359550561797E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.12359550561797E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.13636363636363E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.13636363636363E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1494252873563199E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1627906976744099E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.1627906976744099E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1764705882352899E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.1764705882352899E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.1904761904761901E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.20481927710843E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.20481927710843E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.21951219512195E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.23456790123456E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.23456790123456E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.26582278481012E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.2820512820512799E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.2820512820512799E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.2987012987012899E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3157894736842099E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3333333333333299E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.35135135135135E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.3698630136986301E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.3698630136986301E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.38888888888888E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4084507042253501E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.42857142857142E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.4492753623188401E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.47058823529411E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.4925373134328301E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.51515151515151E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.53846153846153E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5873015873015799E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.6129032258064498E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.63934426229508E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.6666666666666601E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.6949152542372801E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.72413793103448E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.7543859649122799E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.7857142857142801E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.8181818181818101E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.85185185185185E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.8867924528301799E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.9230769230769201E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.9607843137254902E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.0833333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.1276595744680799E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.1739130434782601E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.2222222222222199E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.27272727272727E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.3809523809523801E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.4390243902439001E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.5641025641025599E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.6315789473684199E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.77777777777777E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.8571428571428501E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.94117647058823E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.2258064516128997E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.3333333333333298E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.4482758620689599E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.7037037037037E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.8461538461538401E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.1666666666666602E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4.3478260869565202E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.54545454545454E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.2631578947368397E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.5555555555555497E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.6666666666666596E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.69230769230769E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>8.3333333333333301E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.11111111111111099</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.14285714285714199</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.16666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.33333333333333298</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-91DD-4F08-9B9D-62A4655D98A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12829,10 +9386,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="20A39E"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -12841,17 +9397,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -13504,9 +10052,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="20A39E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -13517,15 +10063,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="20A39E"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="20A39E"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -14179,10 +10721,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="20A39E"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -14191,17 +10732,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -14847,6 +11380,3491 @@
         </c:dLbls>
         <c:axId val="1209106576"/>
         <c:axId val="1502827008"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>low-Exit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.56000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.56999999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$H$2:$H$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-91DD-4F08-9B9D-62A4655D98A5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>median-Exit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.56000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.56999999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$I$2:$I$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-91DD-4F08-9B9D-62A4655D98A5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>high-Exit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.56000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.56999999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$J$2:$J$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-91DD-4F08-9B9D-62A4655D98A5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$Q$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>low-Statechart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.56000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.56999999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$Q$2:$Q$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>9.7087378640776604E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.7087378640776604E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.7087378640776604E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.7087378640776604E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.7087378640776604E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.7087378640776604E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.7087378640776604E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.7087378640776604E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9.7087378640776604E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.8039215686274508E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9.8039215686274508E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9.8039215686274508E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9.9009900990098994E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9.9009900990098994E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.01010101010101E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.01010101010101E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.0204081632653E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.0204081632653E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.03092783505154E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.03092783505154E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.04166666666666E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.0526315789473601E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.0526315789473601E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.0638297872340399E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.0869565217391301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.09890109890109E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.1111111111111099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.1111111111111099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.12359550561797E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.13636363636363E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.1494252873563199E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.1627906976744099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.1764705882352899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.1904761904761901E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.1904761904761901E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.20481927710843E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.21951219512195E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.23456790123456E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1.2500000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1.26582278481012E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>1.2820512820512799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1.2987012987012899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1.3157894736842099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1.3333333333333299E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1.35135135135135E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1.3698630136986301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1.4084507042253501E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1.42857142857142E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1.4492753623188401E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1.47058823529411E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1.4925373134328301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1.51515151515151E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1.53846153846153E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1.5625E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1.6129032258064498E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1.63934426229508E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>1.6666666666666601E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>1.6949152542372801E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1.72413793103448E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1.7857142857142801E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>1.8181818181818101E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>1.85185185185185E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>1.9230769230769201E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>1.9607843137254902E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2.0833333333333301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>2.1276595744680799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>2.1739130434782601E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>2.27272727272727E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>2.3255813953488299E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>2.3809523809523801E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2.5641025641025599E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2.7027027027027001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>2.77777777777777E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>2.94117647058823E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>3.03030303030303E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>3.125E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>3.3333333333333298E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>3.4482758620689599E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>3.7037037037037E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>4.1666666666666602E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>4.54545454545454E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>4.7619047619047603E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>5.2631578947368397E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>5.5555555555555497E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>6.25E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>6.6666666666666596E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>7.69230769230769E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>9.0909090909090898E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.125</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.16666666666666599</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.33333333333333298</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-91DD-4F08-9B9D-62A4655D98A5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$S$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>high-Statechart</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$A$2:$A$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.56000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.56999999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100_typeStatisticsByPercentageS'!$S$2:$S$102</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.0752688172042999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.0869565217391301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0869565217391301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.0869565217391301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.09890109890109E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.09890109890109E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.09890109890109E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.1111111111111099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.1111111111111099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.1111111111111099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.12359550561797E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.12359550561797E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.13636363636363E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.13636363636363E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.1494252873563199E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.1627906976744099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.1627906976744099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.1764705882352899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.1764705882352899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.1904761904761901E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.20481927710843E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.20481927710843E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.21951219512195E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.23456790123456E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.23456790123456E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.2500000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.26582278481012E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.2820512820512799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.2820512820512799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.2987012987012899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.3157894736842099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.3333333333333299E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.35135135135135E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.3698630136986301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.3698630136986301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1.38888888888888E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1.4084507042253501E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>1.42857142857142E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1.4492753623188401E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1.47058823529411E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1.4925373134328301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1.51515151515151E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1.53846153846153E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1.5625E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1.5873015873015799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1.6129032258064498E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1.63934426229508E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1.6666666666666601E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1.6949152542372801E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1.72413793103448E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1.7543859649122799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1.7857142857142801E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1.8181818181818101E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>1.85185185185185E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>1.8867924528301799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1.9230769230769201E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1.9607843137254902E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2.0833333333333301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2.1276595744680799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2.1739130434782601E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2.2222222222222199E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2.27272727272727E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>2.3809523809523801E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>2.4390243902439001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>2.5641025641025599E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>2.6315789473684199E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2.77777777777777E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2.8571428571428501E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2.94117647058823E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>3.125E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>3.2258064516128997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>3.3333333333333298E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>3.4482758620689599E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>3.7037037037037E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>3.8461538461538401E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>4.1666666666666602E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>4.3478260869565202E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>4.54545454545454E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>5.2631578947368397E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>5.5555555555555497E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>6.25E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>6.6666666666666596E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>7.69230769230769E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>8.3333333333333301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.11111111111111099</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.14285714285714199</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.16666666666666599</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.33333333333333298</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-91DD-4F08-9B9D-62A4655D98A5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1209106576"/>
@@ -15609,7 +15627,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
@@ -15623,7 +15641,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9291205" cy="6070023"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -15948,7 +15966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
